--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1279873.379990862</v>
+        <v>1241601.207286113</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1859295.739030066</v>
+        <v>1859210.471657866</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7938807.101553148</v>
+        <v>7928464.101181046</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8701955.653025651</v>
+        <v>8704811.254162131</v>
       </c>
     </row>
     <row r="11">
@@ -679,11 +679,11 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I3" t="n">
         <v>6.876045741711437</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,20 +858,20 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="R4" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.876045741711437</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>5.309829763041574</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U6" t="n">
-        <v>6.876045741711437</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3.487951988786145</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K10" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>317.5523549092145</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>166.4810805466385</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>146.8931342764365</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>69.51753198825622</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.56386682245574</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>305.447583439356</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>31.81879361082632</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>90.89194914133955</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
         <v>225.8879277888686</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>151.0101887420476</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>69.40414780104449</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>66.86902423233431</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>107.8350412585813</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>99.44420492154089</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>62.953695695055</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>311.4898237701803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>14.44433456003252</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498666</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2222,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>84.95149223441527</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>61.50151109586489</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2520,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>33.20988753395282</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>141.3236091729814</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>101.0648684641362</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>95.94540487739351</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2642,7 +2642,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>34.02048567924308</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,10 +2809,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>79.09547483958364</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>355.2566970572772</v>
       </c>
     </row>
     <row r="30">
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>118.2537958723258</v>
       </c>
       <c r="U31" t="n">
-        <v>4.553842565068688</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>110.7002136147241</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>105.3148082618167</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>128.4340426649161</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>186.2223270243725</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>356.2400728569431</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>392.1869550776437</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>146.6850513083903</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>157.7061603512631</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>130.1024780662195</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>266.6910260201686</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>163.2022406867813</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>252.6012399104507</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>120.8520174574765</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>131.5201233750762</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>201.0891638436808</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>234.4970761400736</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>166.9772727497796</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>198.6495092155569</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4064,19 +4064,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>171.6823742842662</v>
       </c>
       <c r="U45" t="n">
         <v>225.8879277888686</v>
@@ -4118,10 +4118,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>88.46280509272349</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.4837616268616</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>174.9442930587127</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>7.495584408540386</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J2" t="n">
         <v>0.5500836593369149</v>
@@ -4336,25 +4336,25 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N2" t="n">
-        <v>14.16465422792556</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S2" t="n">
         <v>21.38658590694733</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C3" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D3" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E3" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F3" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="G3" t="n">
-        <v>8.2497170613261</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="H3" t="n">
         <v>8.2497170613261</v>
@@ -4412,49 +4412,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L3" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M3" t="n">
-        <v>7.357368943631237</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N3" t="n">
-        <v>7.357368943631237</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O3" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P3" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U3" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V3" t="n">
-        <v>8.2497170613261</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W3" t="n">
-        <v>8.2497170613261</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X3" t="n">
-        <v>8.2497170613261</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.2497170613261</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.667680719235332</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="C4" t="n">
-        <v>6.667680719235332</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="D4" t="n">
-        <v>6.667680719235332</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="E4" t="n">
-        <v>6.667680719235332</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="F4" t="n">
-        <v>6.667680719235332</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="G4" t="n">
-        <v>6.667680719235332</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="H4" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I4" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J4" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4506,34 +4506,34 @@
         <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.55868221764227</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R4" t="n">
-        <v>13.6131814684388</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="S4" t="n">
-        <v>13.6131814684388</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="T4" t="n">
-        <v>13.6131814684388</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U4" t="n">
-        <v>13.6131814684388</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="V4" t="n">
-        <v>13.6131814684388</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="W4" t="n">
-        <v>13.6131814684388</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="X4" t="n">
-        <v>6.667680719235332</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.667680719235332</v>
+        <v>17.80975218218115</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G5" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H5" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I5" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M5" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N5" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="6">
@@ -4655,13 +4655,13 @@
         <v>13.8896123982571</v>
       </c>
       <c r="M6" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O6" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N6" t="n">
-        <v>20.69689768255142</v>
-      </c>
-      <c r="O6" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4670,28 +4670,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>22.14071855973305</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>22.14071855973305</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T6" t="n">
-        <v>22.14071855973305</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="U6" t="n">
-        <v>15.19521781052957</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="V6" t="n">
-        <v>15.19521781052957</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="W6" t="n">
-        <v>15.19521781052957</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="X6" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.86425143297768</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C7" t="n">
-        <v>10.86425143297768</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D7" t="n">
-        <v>10.86425143297768</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E7" t="n">
         <v>7.495584408540386</v>
@@ -4731,46 +4731,46 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N7" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O7" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.75525293138463</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R7" t="n">
-        <v>24.75525293138463</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S7" t="n">
-        <v>17.80975218218115</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T7" t="n">
-        <v>10.86425143297768</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U7" t="n">
-        <v>10.86425143297768</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V7" t="n">
-        <v>10.86425143297768</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W7" t="n">
-        <v>10.86425143297768</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X7" t="n">
-        <v>10.86425143297768</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.86425143297768</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.13884024390788</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C8" t="n">
-        <v>32.13884024390788</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D8" t="n">
-        <v>32.13884024390788</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E8" t="n">
-        <v>32.13884024390788</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>16.68152962255934</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M8" t="n">
-        <v>16.37392914119451</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N8" t="n">
-        <v>31.52363928117821</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
-        <v>61.2109500605402</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>51.11933469231312</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>51.11933469231312</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>51.11933469231312</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>51.11933469231312</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
-        <v>35.66202407096459</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X8" t="n">
-        <v>32.13884024390788</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y8" t="n">
-        <v>32.13884024390788</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.43566227534506</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="C9" t="n">
-        <v>17.43566227534506</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="D9" t="n">
-        <v>17.43566227534506</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="E9" t="n">
-        <v>17.43566227534506</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="F9" t="n">
-        <v>1.978351653996518</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="G9" t="n">
-        <v>1.978351653996518</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="H9" t="n">
-        <v>1.978351653996518</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J9" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>16.37392914119451</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>31.52363928117821</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M9" t="n">
-        <v>31.52363928117821</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N9" t="n">
-        <v>46.6733494211619</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
-        <v>61.2109500605402</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
-        <v>61.2109500605402</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q9" t="n">
-        <v>61.2109500605402</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>45.75363943919166</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="V9" t="n">
-        <v>30.29632881784312</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="W9" t="n">
-        <v>17.43566227534506</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="X9" t="n">
-        <v>17.43566227534506</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.43566227534506</v>
+        <v>15.19521781052957</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.68152962255934</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="C10" t="n">
-        <v>16.68152962255934</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="D10" t="n">
-        <v>16.68152962255934</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="E10" t="n">
-        <v>16.68152962255934</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="F10" t="n">
-        <v>16.68152962255934</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="H10" t="n">
-        <v>16.68152962255934</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="I10" t="n">
-        <v>16.68152962255934</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68152962255934</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K10" t="n">
-        <v>1.224219001210804</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>16.37392914119451</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M10" t="n">
-        <v>30.9115297805728</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
-        <v>46.0612399205565</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
-        <v>61.2109500605402</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>58.46202002507908</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46202002507908</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
-        <v>58.46202002507908</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="S10" t="n">
-        <v>58.46202002507908</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="T10" t="n">
-        <v>58.46202002507908</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U10" t="n">
-        <v>58.46202002507908</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="V10" t="n">
-        <v>58.46202002507908</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="W10" t="n">
-        <v>43.00470940373054</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="X10" t="n">
-        <v>27.54739878238201</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.54739878238201</v>
+        <v>17.80975218218115</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2090.132824841294</v>
+        <v>1167.075207759977</v>
       </c>
       <c r="C11" t="n">
-        <v>1769.372870387542</v>
+        <v>1167.075207759977</v>
       </c>
       <c r="D11" t="n">
-        <v>1411.107171780791</v>
+        <v>1167.075207759977</v>
       </c>
       <c r="E11" t="n">
-        <v>1025.318919182547</v>
+        <v>781.2869551617325</v>
       </c>
       <c r="F11" t="n">
-        <v>614.3330143929395</v>
+        <v>370.301050372125</v>
       </c>
       <c r="G11" t="n">
-        <v>196.3692062911264</v>
+        <v>370.301050372125</v>
       </c>
       <c r="H11" t="n">
-        <v>196.3692062911264</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="I11" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="J11" t="n">
-        <v>42.90323028621602</v>
+        <v>158.8741866410776</v>
       </c>
       <c r="K11" t="n">
-        <v>42.90323028621602</v>
+        <v>227.977318610047</v>
       </c>
       <c r="L11" t="n">
-        <v>460.2240083353108</v>
+        <v>645.2980966591418</v>
       </c>
       <c r="M11" t="n">
-        <v>810.251170573021</v>
+        <v>1126.254416817177</v>
       </c>
       <c r="N11" t="n">
-        <v>1284.357869269752</v>
+        <v>1600.361115513909</v>
       </c>
       <c r="O11" t="n">
-        <v>1686.855742935267</v>
+        <v>2002.858989179424</v>
       </c>
       <c r="P11" t="n">
-        <v>1992.70398308383</v>
+        <v>2002.858989179424</v>
       </c>
       <c r="Q11" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406394</v>
       </c>
       <c r="R11" t="n">
-        <v>2090.132824841294</v>
+        <v>2155.316520406394</v>
       </c>
       <c r="S11" t="n">
-        <v>2090.132824841294</v>
+        <v>1979.139032720564</v>
       </c>
       <c r="T11" t="n">
-        <v>2090.132824841294</v>
+        <v>1979.139032720564</v>
       </c>
       <c r="U11" t="n">
-        <v>2090.132824841294</v>
+        <v>1725.377247358656</v>
       </c>
       <c r="V11" t="n">
-        <v>2090.132824841294</v>
+        <v>1725.377247358656</v>
       </c>
       <c r="W11" t="n">
-        <v>2090.132824841294</v>
+        <v>1557.214539735789</v>
       </c>
       <c r="X11" t="n">
-        <v>2090.132824841294</v>
+        <v>1557.214539735789</v>
       </c>
       <c r="Y11" t="n">
-        <v>2090.132824841294</v>
+        <v>1167.075207759977</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>436.5103985096612</v>
+        <v>496.8787751934297</v>
       </c>
       <c r="C12" t="n">
-        <v>262.0573692285342</v>
+        <v>348.5018718838979</v>
       </c>
       <c r="D12" t="n">
-        <v>113.1229595672829</v>
+        <v>348.5018718838979</v>
       </c>
       <c r="E12" t="n">
-        <v>42.90323028621602</v>
+        <v>348.5018718838979</v>
       </c>
       <c r="F12" t="n">
-        <v>42.90323028621602</v>
+        <v>348.5018718838979</v>
       </c>
       <c r="G12" t="n">
-        <v>42.90323028621602</v>
+        <v>210.591758830164</v>
       </c>
       <c r="H12" t="n">
-        <v>42.90323028621602</v>
+        <v>105.1489768551058</v>
       </c>
       <c r="I12" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="J12" t="n">
-        <v>118.1603926863458</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="K12" t="n">
-        <v>118.1603926863458</v>
+        <v>298.3536508492264</v>
       </c>
       <c r="L12" t="n">
-        <v>522.7763107820177</v>
+        <v>702.9695689448982</v>
       </c>
       <c r="M12" t="n">
-        <v>837.8533028837047</v>
+        <v>1227.116482502929</v>
       </c>
       <c r="N12" t="n">
-        <v>1368.780777675628</v>
+        <v>1378.935783771221</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.916700695972</v>
+        <v>1819.071706791565</v>
       </c>
       <c r="P12" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406394</v>
       </c>
       <c r="Q12" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406394</v>
       </c>
       <c r="R12" t="n">
-        <v>2094.948143722625</v>
+        <v>2155.316520406394</v>
       </c>
       <c r="S12" t="n">
-        <v>1936.775171366542</v>
+        <v>1997.14354805031</v>
       </c>
       <c r="T12" t="n">
-        <v>1737.896623489321</v>
+        <v>1798.265000173089</v>
       </c>
       <c r="U12" t="n">
-        <v>1509.72699946016</v>
+        <v>1570.095376143929</v>
       </c>
       <c r="V12" t="n">
-        <v>1274.574891228418</v>
+        <v>1334.943267912186</v>
       </c>
       <c r="W12" t="n">
-        <v>1020.337534500216</v>
+        <v>1080.705911183984</v>
       </c>
       <c r="X12" t="n">
-        <v>812.4860342946831</v>
+        <v>872.8544109784516</v>
       </c>
       <c r="Y12" t="n">
-        <v>604.7257355297293</v>
+        <v>665.0941122134977</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>717.0892326722859</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="C13" t="n">
-        <v>717.0892326722859</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="D13" t="n">
-        <v>653.8934075990983</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="E13" t="n">
-        <v>505.9803140167052</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="F13" t="n">
-        <v>505.9803140167052</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="G13" t="n">
-        <v>336.9805137550376</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="H13" t="n">
-        <v>179.2321411875678</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="I13" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="J13" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="K13" t="n">
-        <v>99.20542335248416</v>
+        <v>99.40852347439602</v>
       </c>
       <c r="L13" t="n">
-        <v>226.7792809136426</v>
+        <v>226.9823810355545</v>
       </c>
       <c r="M13" t="n">
-        <v>371.6771496316725</v>
+        <v>371.8802497535844</v>
       </c>
       <c r="N13" t="n">
-        <v>518.5642873161016</v>
+        <v>518.7673874380134</v>
       </c>
       <c r="O13" t="n">
-        <v>638.2220378253418</v>
+        <v>638.4251379472536</v>
       </c>
       <c r="P13" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="Q13" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="R13" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="S13" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="T13" t="n">
-        <v>717.0892326722859</v>
+        <v>489.9841454627995</v>
       </c>
       <c r="U13" t="n">
-        <v>717.0892326722859</v>
+        <v>489.9841454627995</v>
       </c>
       <c r="V13" t="n">
-        <v>717.0892326722859</v>
+        <v>235.2996572569126</v>
       </c>
       <c r="W13" t="n">
-        <v>717.0892326722859</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="X13" t="n">
-        <v>717.0892326722859</v>
+        <v>43.10633040812788</v>
       </c>
       <c r="Y13" t="n">
-        <v>717.0892326722859</v>
+        <v>43.10633040812788</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>504.9021188561325</v>
+        <v>1341.764330062013</v>
       </c>
       <c r="C14" t="n">
-        <v>504.9021188561325</v>
+        <v>972.8018131216018</v>
       </c>
       <c r="D14" t="n">
-        <v>504.9021188561325</v>
+        <v>614.5361145148513</v>
       </c>
       <c r="E14" t="n">
-        <v>504.9021188561325</v>
+        <v>614.5361145148513</v>
       </c>
       <c r="F14" t="n">
-        <v>504.9021188561325</v>
+        <v>614.5361145148513</v>
       </c>
       <c r="G14" t="n">
-        <v>504.9021188561325</v>
+        <v>196.5723064130382</v>
       </c>
       <c r="H14" t="n">
-        <v>196.3692062911264</v>
+        <v>196.5723064130382</v>
       </c>
       <c r="I14" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="J14" t="n">
-        <v>158.6710865191657</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="K14" t="n">
-        <v>452.9218975391642</v>
+        <v>337.3571414281263</v>
       </c>
       <c r="L14" t="n">
-        <v>870.2426755882591</v>
+        <v>754.6779194772212</v>
       </c>
       <c r="M14" t="n">
-        <v>962.7087017999913</v>
+        <v>1235.634239635257</v>
       </c>
       <c r="N14" t="n">
-        <v>1436.815400496723</v>
+        <v>1446.970406592316</v>
       </c>
       <c r="O14" t="n">
-        <v>1839.313274162238</v>
+        <v>1849.46828025783</v>
       </c>
       <c r="P14" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="Q14" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="R14" t="n">
-        <v>2090.132824841294</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="S14" t="n">
-        <v>2090.132824841294</v>
+        <v>1979.139032720564</v>
       </c>
       <c r="T14" t="n">
-        <v>1871.498157813357</v>
+        <v>1760.504365692626</v>
       </c>
       <c r="U14" t="n">
-        <v>1617.736372451448</v>
+        <v>1760.504365692626</v>
       </c>
       <c r="V14" t="n">
-        <v>1617.736372451448</v>
+        <v>1728.364170126135</v>
       </c>
       <c r="W14" t="n">
-        <v>1264.967717181334</v>
+        <v>1728.364170126135</v>
       </c>
       <c r="X14" t="n">
-        <v>891.5019589202543</v>
+        <v>1728.364170126135</v>
       </c>
       <c r="Y14" t="n">
-        <v>891.5019589202543</v>
+        <v>1728.364170126135</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>690.6137009679497</v>
+        <v>604.8383769613379</v>
       </c>
       <c r="C15" t="n">
-        <v>516.1606716868228</v>
+        <v>430.3853476802109</v>
       </c>
       <c r="D15" t="n">
-        <v>516.1606716868228</v>
+        <v>281.4509380189596</v>
       </c>
       <c r="E15" t="n">
-        <v>356.9232166813672</v>
+        <v>189.6408883812429</v>
       </c>
       <c r="F15" t="n">
-        <v>210.3886587082521</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="G15" t="n">
-        <v>210.3886587082521</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="H15" t="n">
-        <v>104.945876733194</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="I15" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="J15" t="n">
-        <v>42.90323028621602</v>
+        <v>118.3634928082577</v>
       </c>
       <c r="K15" t="n">
-        <v>298.1505507273145</v>
+        <v>373.6108132493562</v>
       </c>
       <c r="L15" t="n">
-        <v>702.7664688229863</v>
+        <v>778.226731345028</v>
       </c>
       <c r="M15" t="n">
-        <v>1226.913382381017</v>
+        <v>1299.758198271787</v>
       </c>
       <c r="N15" t="n">
-        <v>1757.84085717294</v>
+        <v>1378.935783771221</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.916700695972</v>
+        <v>1819.071706791565</v>
       </c>
       <c r="P15" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="Q15" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="R15" t="n">
-        <v>2094.948143722625</v>
+        <v>2105.103149818218</v>
       </c>
       <c r="S15" t="n">
-        <v>1936.775171366542</v>
+        <v>2105.103149818218</v>
       </c>
       <c r="T15" t="n">
-        <v>1936.775171366542</v>
+        <v>1906.224601940997</v>
       </c>
       <c r="U15" t="n">
-        <v>1708.605547337381</v>
+        <v>1678.054977911837</v>
       </c>
       <c r="V15" t="n">
-        <v>1473.453439105639</v>
+        <v>1442.902869680094</v>
       </c>
       <c r="W15" t="n">
-        <v>1219.216082377437</v>
+        <v>1188.665512951893</v>
       </c>
       <c r="X15" t="n">
-        <v>1011.364582171904</v>
+        <v>980.8140127463598</v>
       </c>
       <c r="Y15" t="n">
-        <v>858.8290379880177</v>
+        <v>773.053713981406</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>717.0892326722859</v>
+        <v>212.1061306697954</v>
       </c>
       <c r="C16" t="n">
-        <v>717.0892326722859</v>
+        <v>212.1061306697954</v>
       </c>
       <c r="D16" t="n">
-        <v>717.0892326722859</v>
+        <v>212.1061306697954</v>
       </c>
       <c r="E16" t="n">
-        <v>698.5267859474812</v>
+        <v>212.1061306697954</v>
       </c>
       <c r="F16" t="n">
-        <v>551.6368384495709</v>
+        <v>212.1061306697954</v>
       </c>
       <c r="G16" t="n">
-        <v>382.6370381879033</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="H16" t="n">
-        <v>224.8886656204334</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="I16" t="n">
-        <v>88.55975471908167</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="J16" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="K16" t="n">
-        <v>99.20542335248416</v>
+        <v>99.40852347439602</v>
       </c>
       <c r="L16" t="n">
-        <v>226.7792809136426</v>
+        <v>226.9823810355545</v>
       </c>
       <c r="M16" t="n">
-        <v>371.6771496316725</v>
+        <v>371.8802497535844</v>
       </c>
       <c r="N16" t="n">
-        <v>518.5642873161016</v>
+        <v>518.7673874380134</v>
       </c>
       <c r="O16" t="n">
-        <v>638.2220378253418</v>
+        <v>638.4251379472536</v>
       </c>
       <c r="P16" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="Q16" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="R16" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="S16" t="n">
-        <v>717.0892326722859</v>
+        <v>503.0039096123604</v>
       </c>
       <c r="T16" t="n">
-        <v>717.0892326722859</v>
+        <v>503.0039096123604</v>
       </c>
       <c r="U16" t="n">
-        <v>717.0892326722859</v>
+        <v>503.0039096123604</v>
       </c>
       <c r="V16" t="n">
-        <v>717.0892326722859</v>
+        <v>503.0039096123604</v>
       </c>
       <c r="W16" t="n">
-        <v>717.0892326722859</v>
+        <v>503.0039096123604</v>
       </c>
       <c r="X16" t="n">
-        <v>717.0892326722859</v>
+        <v>432.8987098133256</v>
       </c>
       <c r="Y16" t="n">
-        <v>717.0892326722859</v>
+        <v>212.1061306697954</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.959449965771</v>
+        <v>1663.420136195576</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253591</v>
+        <v>1663.420136195576</v>
       </c>
       <c r="D17" t="n">
-        <v>439.7312344186087</v>
+        <v>1663.420136195576</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>1277.631883597332</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>866.6459788077245</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>448.6821707059114</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>121.4874507419142</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W17" t="n">
-        <v>1553.559290029893</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X17" t="n">
-        <v>1553.559290029893</v>
+        <v>2050.019976259698</v>
       </c>
       <c r="Y17" t="n">
-        <v>1553.559290029893</v>
+        <v>2050.019976259698</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5591,52 +5591,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>473.4444960005474</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C19" t="n">
-        <v>304.5083130726405</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D19" t="n">
-        <v>154.3916736603047</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005474</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X19" t="n">
-        <v>473.4444960005474</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y19" t="n">
-        <v>473.4444960005474</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.1711973675267</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C20" t="n">
-        <v>412.2086804271149</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036445</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2627.530164619389</v>
       </c>
       <c r="U20" t="n">
-        <v>2212.181128500977</v>
+        <v>2627.530164619389</v>
       </c>
       <c r="V20" t="n">
-        <v>2212.181128500977</v>
+        <v>2296.467277275819</v>
       </c>
       <c r="W20" t="n">
-        <v>1859.412473230863</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="X20" t="n">
-        <v>1485.946714969783</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y20" t="n">
-        <v>1095.807382993971</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.3053441250782</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5931,31 +5931,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>698.7120650600561</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U22" t="n">
-        <v>698.7120650600561</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V22" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W22" t="n">
-        <v>409.2948950230955</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X22" t="n">
-        <v>181.3053441250782</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>181.3053441250782</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1310.833184497836</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C23" t="n">
-        <v>1310.833184497836</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D23" t="n">
-        <v>952.5674858910851</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E23" t="n">
-        <v>952.5674858910851</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2635.026352537551</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2635.026352537551</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2381.264567175642</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2050.201679832071</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.433024561957</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.433024561957</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y23" t="n">
-        <v>1697.433024561957</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2486.040172362642</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C25" t="n">
-        <v>2486.040172362642</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D25" t="n">
-        <v>2486.040172362642</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E25" t="n">
-        <v>2486.040172362642</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>2486.040172362642</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>2317.040372100974</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2519.585513306029</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>2486.040172362642</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T25" t="n">
-        <v>2486.040172362642</v>
+        <v>222.942782082032</v>
       </c>
       <c r="U25" t="n">
-        <v>2486.040172362642</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V25" t="n">
-        <v>2486.040172362642</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W25" t="n">
-        <v>2486.040172362642</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X25" t="n">
-        <v>2486.040172362642</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y25" t="n">
-        <v>2486.040172362642</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>625.3727659270879</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C26" t="n">
-        <v>625.3727659270879</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>625.3727659270879</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>625.3727659270879</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2545.20585116751</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2326.571184139573</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>2072.809398777664</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V26" t="n">
-        <v>1741.746511434094</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W26" t="n">
-        <v>1388.97785616398</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X26" t="n">
-        <v>1015.5120979029</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y26" t="n">
-        <v>625.3727659270879</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
         <v>505.8730812692495</v>
@@ -6305,16 +6305,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6329,19 +6329,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>257.3069090307624</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>257.3069090307624</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D28" t="n">
-        <v>257.3069090307624</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E28" t="n">
-        <v>257.3069090307624</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F28" t="n">
-        <v>257.3069090307624</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G28" t="n">
-        <v>88.30710876909484</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H28" t="n">
-        <v>88.30710876909484</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>88.30710876909484</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036445</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2075.803581887074</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C29" t="n">
-        <v>1706.841064946662</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D29" t="n">
-        <v>1348.575366339912</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E29" t="n">
-        <v>962.7871137416676</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>551.8012089520601</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>133.8374008502469</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>133.8374008502469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>2465.942913862886</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>2075.803581887074</v>
+        <v>1964.838184214438</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>286.5323736931987</v>
+        <v>608.6807055475192</v>
       </c>
       <c r="U31" t="n">
-        <v>281.9325327183818</v>
+        <v>608.6807055475192</v>
       </c>
       <c r="V31" t="n">
-        <v>281.9325327183818</v>
+        <v>608.6807055475192</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9325327183818</v>
+        <v>608.6807055475192</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>546.109828622464</v>
+        <v>920.5121489496507</v>
       </c>
       <c r="C32" t="n">
-        <v>546.109828622464</v>
+        <v>551.5496320092391</v>
       </c>
       <c r="D32" t="n">
-        <v>546.109828622464</v>
+        <v>551.5496320092391</v>
       </c>
       <c r="E32" t="n">
-        <v>160.3215760242197</v>
+        <v>165.7613794109948</v>
       </c>
       <c r="F32" t="n">
-        <v>160.3215760242197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>160.3215760242197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>160.3215760242197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982757</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y32" t="n">
-        <v>546.109828622464</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6785,10 +6785,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6803,19 +6803,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>391.878965009939</v>
+        <v>352.67413830922</v>
       </c>
       <c r="C34" t="n">
-        <v>222.942782082032</v>
+        <v>352.67413830922</v>
       </c>
       <c r="D34" t="n">
-        <v>222.942782082032</v>
+        <v>352.67413830922</v>
       </c>
       <c r="E34" t="n">
-        <v>222.942782082032</v>
+        <v>352.67413830922</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>352.67413830922</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>183.6743380475524</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036445</v>
@@ -6885,25 +6885,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>391.878965009939</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T34" t="n">
-        <v>391.878965009939</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U34" t="n">
-        <v>391.878965009939</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V34" t="n">
-        <v>391.878965009939</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W34" t="n">
-        <v>391.878965009939</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X34" t="n">
-        <v>391.878965009939</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y34" t="n">
-        <v>391.878965009939</v>
+        <v>352.67413830922</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1289.01781586839</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C35" t="n">
-        <v>1289.01781586839</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="D35" t="n">
-        <v>930.7521172616393</v>
+        <v>831.7452473534333</v>
       </c>
       <c r="E35" t="n">
-        <v>930.7521172616393</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
-        <v>930.7521172616393</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6970,19 +6970,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W35" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X35" t="n">
-        <v>1289.01781586839</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y35" t="n">
-        <v>1289.01781586839</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.1394333084169</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C37" t="n">
-        <v>500.1394333084169</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D37" t="n">
-        <v>350.0227938960811</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E37" t="n">
-        <v>202.109700313688</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F37" t="n">
-        <v>202.109700313688</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>202.109700313688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036445</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X37" t="n">
-        <v>500.1394333084169</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y37" t="n">
-        <v>500.1394333084169</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.9054987607761</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C38" t="n">
-        <v>53.94298182036445</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036445</v>
+        <v>1522.852542550655</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.703757037383</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.703757037383</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U38" t="n">
-        <v>2256.941971675474</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>1925.879084331904</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W38" t="n">
-        <v>1573.11042906179</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X38" t="n">
-        <v>1199.64467080071</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y38" t="n">
-        <v>809.505338824898</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7265,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2173.079728044489</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C40" t="n">
-        <v>2173.079728044489</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2427.764216250375</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>2173.079728044489</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W40" t="n">
-        <v>2173.079728044489</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X40" t="n">
-        <v>2173.079728044489</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y40" t="n">
-        <v>2173.079728044489</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1363.8984113101</v>
+        <v>607.5582112026458</v>
       </c>
       <c r="C41" t="n">
-        <v>1363.8984113101</v>
+        <v>607.5582112026458</v>
       </c>
       <c r="D41" t="n">
-        <v>1363.8984113101</v>
+        <v>607.5582112026458</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.047663141634</v>
+        <v>607.5582112026458</v>
       </c>
       <c r="F41" t="n">
-        <v>788.0617583520263</v>
+        <v>196.5723064130382</v>
       </c>
       <c r="G41" t="n">
-        <v>370.0979502502132</v>
+        <v>196.5723064130382</v>
       </c>
       <c r="H41" t="n">
-        <v>42.90323028621602</v>
+        <v>196.5723064130382</v>
       </c>
       <c r="I41" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="J41" t="n">
-        <v>42.90323028621602</v>
+        <v>158.8741866410776</v>
       </c>
       <c r="K41" t="n">
-        <v>42.90323028621602</v>
+        <v>453.1249976610761</v>
       </c>
       <c r="L41" t="n">
-        <v>460.2240083353108</v>
+        <v>870.4457757101709</v>
       </c>
       <c r="M41" t="n">
-        <v>941.1803284933463</v>
+        <v>1351.402095868206</v>
       </c>
       <c r="N41" t="n">
-        <v>1415.287027190078</v>
+        <v>1825.508794564938</v>
       </c>
       <c r="O41" t="n">
-        <v>1817.784900855592</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="P41" t="n">
-        <v>1992.70398308383</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="Q41" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="R41" t="n">
-        <v>2090.132824841294</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="S41" t="n">
-        <v>2090.132824841294</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="T41" t="n">
-        <v>2090.132824841294</v>
+        <v>1936.681853378456</v>
       </c>
       <c r="U41" t="n">
-        <v>2090.132824841294</v>
+        <v>1936.681853378456</v>
       </c>
       <c r="V41" t="n">
-        <v>2090.132824841294</v>
+        <v>1605.618966034885</v>
       </c>
       <c r="W41" t="n">
-        <v>1737.36416957118</v>
+        <v>1252.850310764771</v>
       </c>
       <c r="X41" t="n">
-        <v>1363.8984113101</v>
+        <v>997.6975431784575</v>
       </c>
       <c r="Y41" t="n">
-        <v>1363.8984113101</v>
+        <v>607.5582112026458</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.4155772359569</v>
+        <v>899.7813092106767</v>
       </c>
       <c r="C42" t="n">
-        <v>740.9625479548299</v>
+        <v>725.3282799295497</v>
       </c>
       <c r="D42" t="n">
-        <v>592.0281382935786</v>
+        <v>576.3938702682984</v>
       </c>
       <c r="E42" t="n">
-        <v>432.7906832881231</v>
+        <v>417.1564152628429</v>
       </c>
       <c r="F42" t="n">
-        <v>286.256125315008</v>
+        <v>270.6218572897279</v>
       </c>
       <c r="G42" t="n">
-        <v>148.3460122612742</v>
+        <v>148.549112383186</v>
       </c>
       <c r="H42" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="I42" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="J42" t="n">
-        <v>42.90323028621602</v>
+        <v>118.3634928082577</v>
       </c>
       <c r="K42" t="n">
-        <v>298.1505507273145</v>
+        <v>198.9223827524879</v>
       </c>
       <c r="L42" t="n">
-        <v>702.7664688229863</v>
+        <v>603.5383008481598</v>
       </c>
       <c r="M42" t="n">
-        <v>765.8653692685173</v>
+        <v>1127.685214406191</v>
       </c>
       <c r="N42" t="n">
-        <v>1196.707793810031</v>
+        <v>1206.862799905624</v>
       </c>
       <c r="O42" t="n">
-        <v>1636.843716830375</v>
+        <v>1646.998722925968</v>
       </c>
       <c r="P42" t="n">
-        <v>1973.088530445204</v>
+        <v>1983.243536540797</v>
       </c>
       <c r="Q42" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="R42" t="n">
-        <v>2145.161514310801</v>
+        <v>2105.103149818218</v>
       </c>
       <c r="S42" t="n">
-        <v>2145.161514310801</v>
+        <v>1946.930177462134</v>
       </c>
       <c r="T42" t="n">
-        <v>1946.28296643358</v>
+        <v>1946.930177462134</v>
       </c>
       <c r="U42" t="n">
-        <v>1718.113342404419</v>
+        <v>1718.760553432974</v>
       </c>
       <c r="V42" t="n">
-        <v>1585.264732934645</v>
+        <v>1483.608445201231</v>
       </c>
       <c r="W42" t="n">
-        <v>1331.027376206444</v>
+        <v>1483.608445201231</v>
       </c>
       <c r="X42" t="n">
-        <v>1123.175876000911</v>
+        <v>1275.756944995699</v>
       </c>
       <c r="Y42" t="n">
-        <v>915.4155772359569</v>
+        <v>1067.996646230745</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="C43" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="D43" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="E43" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="F43" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="G43" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="H43" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="I43" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="J43" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="K43" t="n">
-        <v>99.20542335248416</v>
+        <v>99.40852347439599</v>
       </c>
       <c r="L43" t="n">
-        <v>226.7792809136426</v>
+        <v>226.9823810355544</v>
       </c>
       <c r="M43" t="n">
-        <v>371.6771496316725</v>
+        <v>371.8802497535843</v>
       </c>
       <c r="N43" t="n">
-        <v>518.5642873161016</v>
+        <v>518.7673874380134</v>
       </c>
       <c r="O43" t="n">
-        <v>638.2220378253418</v>
+        <v>638.4251379472536</v>
       </c>
       <c r="P43" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="Q43" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="R43" t="n">
-        <v>717.0892326722859</v>
+        <v>569.1456742283817</v>
       </c>
       <c r="S43" t="n">
-        <v>513.9688651534163</v>
+        <v>569.1456742283817</v>
       </c>
       <c r="T43" t="n">
-        <v>513.9688651534163</v>
+        <v>569.1456742283817</v>
       </c>
       <c r="U43" t="n">
-        <v>513.9688651534163</v>
+        <v>279.9720638829497</v>
       </c>
       <c r="V43" t="n">
-        <v>513.9688651534163</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="W43" t="n">
-        <v>224.5516951164557</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="X43" t="n">
-        <v>224.5516951164557</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.5516951164557</v>
+        <v>43.10633040812787</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1050.493536730338</v>
+        <v>846.8583911081853</v>
       </c>
       <c r="C44" t="n">
-        <v>1050.493536730338</v>
+        <v>846.8583911081853</v>
       </c>
       <c r="D44" t="n">
-        <v>692.2278381235878</v>
+        <v>846.8583911081853</v>
       </c>
       <c r="E44" t="n">
-        <v>692.2278381235878</v>
+        <v>461.070138509941</v>
       </c>
       <c r="F44" t="n">
-        <v>692.2278381235878</v>
+        <v>461.070138509941</v>
       </c>
       <c r="G44" t="n">
-        <v>523.5639262551235</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="H44" t="n">
-        <v>196.3692062911264</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="I44" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="J44" t="n">
-        <v>158.6710865191657</v>
+        <v>158.8741866410776</v>
       </c>
       <c r="K44" t="n">
-        <v>452.9218975391642</v>
+        <v>380.4348498370169</v>
       </c>
       <c r="L44" t="n">
-        <v>706.2870298651034</v>
+        <v>797.7556278861117</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.243350023139</v>
+        <v>1278.711948044147</v>
       </c>
       <c r="N44" t="n">
-        <v>1661.35004871987</v>
+        <v>1752.818646740879</v>
       </c>
       <c r="O44" t="n">
-        <v>1686.855742935267</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="P44" t="n">
-        <v>1992.70398308383</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="Q44" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="R44" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="S44" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="T44" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="U44" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="V44" t="n">
-        <v>1814.09862696723</v>
+        <v>1824.253633062823</v>
       </c>
       <c r="W44" t="n">
-        <v>1814.09862696723</v>
+        <v>1623.597563148119</v>
       </c>
       <c r="X44" t="n">
-        <v>1440.63286870615</v>
+        <v>1623.597563148119</v>
       </c>
       <c r="Y44" t="n">
-        <v>1050.493536730338</v>
+        <v>1233.458231172307</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>977.4582236829348</v>
+        <v>680.5137557456572</v>
       </c>
       <c r="C45" t="n">
-        <v>803.0051944018078</v>
+        <v>506.0607264645303</v>
       </c>
       <c r="D45" t="n">
-        <v>654.0707847405565</v>
+        <v>357.126316803279</v>
       </c>
       <c r="E45" t="n">
-        <v>494.8333297351011</v>
+        <v>357.126316803279</v>
       </c>
       <c r="F45" t="n">
-        <v>348.298771761986</v>
+        <v>210.591758830164</v>
       </c>
       <c r="G45" t="n">
-        <v>210.3886587082521</v>
+        <v>210.591758830164</v>
       </c>
       <c r="H45" t="n">
-        <v>104.945876733194</v>
+        <v>105.1489768551058</v>
       </c>
       <c r="I45" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="J45" t="n">
-        <v>118.1603926863458</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="K45" t="n">
-        <v>118.1603926863458</v>
+        <v>232.0102542704733</v>
       </c>
       <c r="L45" t="n">
-        <v>313.7063893256739</v>
+        <v>636.6261723661452</v>
       </c>
       <c r="M45" t="n">
-        <v>837.8533028837047</v>
+        <v>1160.773085924176</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.780777675628</v>
+        <v>1694.213924724758</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.916700695972</v>
+        <v>2134.349847745102</v>
       </c>
       <c r="P45" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="Q45" t="n">
-        <v>2145.161514310801</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="R45" t="n">
-        <v>2094.948143722625</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="S45" t="n">
-        <v>1936.775171366542</v>
+        <v>2155.316520406393</v>
       </c>
       <c r="T45" t="n">
-        <v>1737.896623489321</v>
+        <v>1981.899980725316</v>
       </c>
       <c r="U45" t="n">
-        <v>1509.72699946016</v>
+        <v>1753.730356696156</v>
       </c>
       <c r="V45" t="n">
-        <v>1274.574891228418</v>
+        <v>1518.578248464413</v>
       </c>
       <c r="W45" t="n">
-        <v>1274.574891228418</v>
+        <v>1264.340891736212</v>
       </c>
       <c r="X45" t="n">
-        <v>1185.218522447889</v>
+        <v>1056.489391530679</v>
       </c>
       <c r="Y45" t="n">
-        <v>977.4582236829348</v>
+        <v>848.7290927657252</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>358.7293607120333</v>
+        <v>362.2227700821312</v>
       </c>
       <c r="C46" t="n">
-        <v>189.7931777841264</v>
+        <v>362.2227700821312</v>
       </c>
       <c r="D46" t="n">
-        <v>189.7931777841264</v>
+        <v>212.1061306697954</v>
       </c>
       <c r="E46" t="n">
-        <v>189.7931777841264</v>
+        <v>212.1061306697954</v>
       </c>
       <c r="F46" t="n">
-        <v>42.90323028621602</v>
+        <v>212.1061306697954</v>
       </c>
       <c r="G46" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="H46" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="I46" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="J46" t="n">
-        <v>42.90323028621602</v>
+        <v>43.10633040812787</v>
       </c>
       <c r="K46" t="n">
-        <v>99.20542335248416</v>
+        <v>99.40852347439599</v>
       </c>
       <c r="L46" t="n">
-        <v>226.7792809136426</v>
+        <v>226.9823810355544</v>
       </c>
       <c r="M46" t="n">
-        <v>371.6771496316725</v>
+        <v>371.8802497535843</v>
       </c>
       <c r="N46" t="n">
-        <v>518.5642873161016</v>
+        <v>518.7673874380134</v>
       </c>
       <c r="O46" t="n">
-        <v>638.2220378253418</v>
+        <v>638.4251379472536</v>
       </c>
       <c r="P46" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="Q46" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="R46" t="n">
-        <v>717.0892326722859</v>
+        <v>717.2923327941977</v>
       </c>
       <c r="S46" t="n">
-        <v>717.0892326722859</v>
+        <v>589.5309574135294</v>
       </c>
       <c r="T46" t="n">
-        <v>717.0892326722859</v>
+        <v>362.2227700821312</v>
       </c>
       <c r="U46" t="n">
-        <v>540.3778255422731</v>
+        <v>362.2227700821312</v>
       </c>
       <c r="V46" t="n">
-        <v>540.3778255422731</v>
+        <v>362.2227700821312</v>
       </c>
       <c r="W46" t="n">
-        <v>540.3778255422731</v>
+        <v>362.2227700821312</v>
       </c>
       <c r="X46" t="n">
-        <v>540.3778255422731</v>
+        <v>362.2227700821312</v>
       </c>
       <c r="Y46" t="n">
-        <v>540.3778255422731</v>
+        <v>362.2227700821312</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>226.965896786692</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
@@ -7996,7 +7996,7 @@
         <v>236.69643713343</v>
       </c>
       <c r="P2" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>144.7174847160704</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>149.1944701561877</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>226.6880767567238</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L5" t="n">
         <v>242.6424607116987</v>
       </c>
       <c r="M5" t="n">
-        <v>237.2222789689842</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O5" t="n">
-        <v>236.9742571633982</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>237.8312214670128</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,7 +8303,7 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>149.0100796637298</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8312,7 +8312,7 @@
         <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8379,7 +8379,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M7" t="n">
         <v>145.8018296893165</v>
@@ -8388,7 +8388,7 @@
         <v>134.5615902069446</v>
       </c>
       <c r="O7" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>226.6880767567238</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>244.715801111726</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>244.7826565119678</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>153.144176489494</v>
+        <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>153.8571172950092</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N9" t="n">
-        <v>146.6444495984684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>157.2806895347256</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,16 +8616,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>150.1874137963733</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M10" t="n">
-        <v>153.6102290378862</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
-        <v>142.9882819803682</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>153.7592759669778</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>26.92237113682282</v>
+        <v>96.7235145398222</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>317.2618588258372</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980288</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>6.639660809448799</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>254.5233249052081</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>456.3130194873634</v>
+        <v>73.37547047359467</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>57.09909516323323</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>171.9221448769616</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,13 +9014,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>463.0631984658874</v>
       </c>
       <c r="N15" t="n">
-        <v>456.3130194873635</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8723399865151009</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783513</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10667,7 +10667,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>26.92237113682282</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,13 +11074,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>307.3757895212717</v>
       </c>
       <c r="P41" t="n">
-        <v>189.5470335044875</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>58.3174843700358</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>88.01227691473188</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>355.2170091334145</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>250.7210208296908</v>
       </c>
       <c r="L44" t="n">
-        <v>252.0494511937275</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,13 +11311,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>58.3174843700358</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>6.639660809448799</v>
+        <v>197.4517051148483</v>
       </c>
       <c r="L45" t="n">
-        <v>159.6586064586674</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>456.3130194873634</v>
+        <v>458.8517710112617</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.266192922115</v>
+        <v>36.26619292211501</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>8.426691773423613</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>47.72053686179305</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>182.7598881707745</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>25.81536471187923</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>88.12754846714472</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>86.05160619575662</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>45.199959188537</v>
@@ -23469,16 +23469,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>18.47518932500111</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>295.9334648593086</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,10 +23579,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>66.75313131406139</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>54.67250703525676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>156.3055075879927</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>85.06229201252694</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>241.4059274588317</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>46.98975772502828</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23940,16 +23940,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>189.183947628773</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>71.24401789330028</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>202.0039857976253</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>41.15808241696124</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24180,16 +24180,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>328.8326777863797</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>112.9142017131066</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>178.9356514160661</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>83.71149628510287</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>264.2080233068713</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>78.47030793157802</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.17947350929392</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>72.83584140527761</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>30.98124159877642</v>
       </c>
     </row>
     <row r="30">
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24888,13 +24888,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>106.7813095857584</v>
       </c>
       <c r="U31" t="n">
-        <v>281.728031676909</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>296.1758321269874</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>46.61650798304454</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>27.73684617687908</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>25.92321192564643</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>25.69029721531865</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>21.5972149431513</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>9.485837533404862</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25365,7 +25365,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>16.75577602442652</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>224.2242097209987</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.31323474275203</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>17.40933785016585</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25605,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>19.5908482218091</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>218.7281293854805</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>117.1298607680183</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>15.67899446572004</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>101.2804637743491</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>11.05637510633807</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375443</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>246.8068972710153</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>150.5914595018561</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,13 +25952,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>25.20738811418275</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>117.310180110754</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>85.66177732315734</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>111.337581183265</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>944181.7708504733</v>
+        <v>942121.0421032644</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630547.1414814555</v>
+        <v>632176.5410609939</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>630547.1414814555</v>
+        <v>632176.5410609941</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719115.1164221985</v>
+        <v>719115.1164221987</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719115.1164221985</v>
+        <v>719115.1164221987</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>719115.1164221987</v>
+        <v>719115.1164221985</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630547.1414814554</v>
+        <v>632176.5410609938</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>630547.1414814553</v>
+        <v>632176.541060994</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>553750.4285094053</v>
       </c>
       <c r="C2" t="n">
-        <v>553750.4285094053</v>
+        <v>553750.4285094055</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>553750.4285094052</v>
       </c>
       <c r="E2" t="n">
-        <v>346254.4406522837</v>
+        <v>347065.784714647</v>
       </c>
       <c r="F2" t="n">
-        <v>346254.4406522839</v>
+        <v>347065.7847146472</v>
       </c>
       <c r="G2" t="n">
         <v>390356.0235212728</v>
@@ -26337,25 +26337,25 @@
         <v>390356.0235212729</v>
       </c>
       <c r="J2" t="n">
-        <v>390356.0235212729</v>
+        <v>390356.0235212727</v>
       </c>
       <c r="K2" t="n">
         <v>390356.0235212729</v>
       </c>
       <c r="L2" t="n">
-        <v>390356.0235212729</v>
+        <v>390356.0235212728</v>
       </c>
       <c r="M2" t="n">
-        <v>390356.0235212728</v>
+        <v>390356.0235212727</v>
       </c>
       <c r="N2" t="n">
         <v>390356.0235212728</v>
       </c>
       <c r="O2" t="n">
-        <v>346254.4406522838</v>
+        <v>347065.7847146472</v>
       </c>
       <c r="P2" t="n">
-        <v>346254.4406522838</v>
+        <v>347065.7847146472</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2617.583265578577</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459035.8409561786</v>
+        <v>462309.8810850064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37822.87874046343</v>
+        <v>37127.04502903576</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2132.719847627556</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129832.2041033555</v>
+        <v>132564.8364348213</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>403521.8812643668</v>
       </c>
       <c r="D4" t="n">
-        <v>402526.5473127806</v>
+        <v>403521.8812643668</v>
       </c>
       <c r="E4" t="n">
-        <v>79517.99925953076</v>
+        <v>79857.09789004612</v>
       </c>
       <c r="F4" t="n">
-        <v>79517.99925953077</v>
+        <v>79857.09789004611</v>
       </c>
       <c r="G4" t="n">
-        <v>97950.11338737929</v>
+        <v>97950.11338737927</v>
       </c>
       <c r="H4" t="n">
-        <v>97950.11338737929</v>
+        <v>97950.11338737927</v>
       </c>
       <c r="I4" t="n">
         <v>97950.11338737929</v>
       </c>
       <c r="J4" t="n">
-        <v>97950.11338737929</v>
+        <v>97950.11338737927</v>
       </c>
       <c r="K4" t="n">
         <v>97950.11338737927</v>
@@ -26456,10 +26456,10 @@
         <v>97950.11338737927</v>
       </c>
       <c r="O4" t="n">
-        <v>79517.99925953076</v>
+        <v>79857.09789004611</v>
       </c>
       <c r="P4" t="n">
-        <v>79517.99925953076</v>
+        <v>79857.09789004611</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>34045.66358109605</v>
       </c>
       <c r="D5" t="n">
-        <v>34558.00644092021</v>
+        <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>40841.26689745665</v>
+        <v>40995.62299010967</v>
       </c>
       <c r="F5" t="n">
-        <v>40841.26689745665</v>
+        <v>40995.62299010967</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>40841.26689745665</v>
+        <v>40995.62299010967</v>
       </c>
       <c r="P5" t="n">
-        <v>40841.26689745665</v>
+        <v>40995.62299010967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113878.562586843</v>
+        <v>113861.7934702139</v>
       </c>
       <c r="C6" t="n">
-        <v>116182.8836639425</v>
+        <v>116166.1145473135</v>
       </c>
       <c r="D6" t="n">
-        <v>114501.057639112</v>
+        <v>116166.1145473133</v>
       </c>
       <c r="E6" t="n">
-        <v>-233140.6664608823</v>
+        <v>-243768.5731743575</v>
       </c>
       <c r="F6" t="n">
-        <v>225895.1744952965</v>
+        <v>218541.307910649</v>
       </c>
       <c r="G6" t="n">
-        <v>205351.5533300207</v>
+        <v>199978.9732956291</v>
       </c>
       <c r="H6" t="n">
-        <v>243174.4320704841</v>
+        <v>237106.0183246648</v>
       </c>
       <c r="I6" t="n">
-        <v>243174.4320704842</v>
+        <v>237106.0183246649</v>
       </c>
       <c r="J6" t="n">
-        <v>241375.3559584399</v>
+        <v>235306.9422126204</v>
       </c>
       <c r="K6" t="n">
-        <v>243174.4320704842</v>
+        <v>237106.018324665</v>
       </c>
       <c r="L6" t="n">
-        <v>241041.7122228566</v>
+        <v>237106.0183246649</v>
       </c>
       <c r="M6" t="n">
-        <v>113342.2279671285</v>
+        <v>104541.1818898435</v>
       </c>
       <c r="N6" t="n">
-        <v>243174.4320704841</v>
+        <v>237106.0183246649</v>
       </c>
       <c r="O6" t="n">
-        <v>225895.1744952964</v>
+        <v>218541.3079106491</v>
       </c>
       <c r="P6" t="n">
-        <v>225895.1744952964</v>
+        <v>218541.307910649</v>
       </c>
     </row>
   </sheetData>
@@ -26795,19 +26795,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>536.2903785777002</v>
+        <v>538.8291301015985</v>
       </c>
       <c r="F4" t="n">
-        <v>536.2903785777002</v>
+        <v>538.8291301015984</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26825,13 +26825,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>536.2903785777002</v>
+        <v>538.8291301015984</v>
       </c>
       <c r="P4" t="n">
-        <v>536.2903785777002</v>
+        <v>538.8291301015984</v>
       </c>
     </row>
   </sheetData>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.426691773423613</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.9876410625651</v>
+        <v>531.953084359887</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>137.9968941768554</v>
+        <v>135.4581426529572</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.426691773423613</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.9876410625652</v>
+        <v>531.953084359887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.426691773423613</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.9876410625651</v>
+        <v>531.953084359887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>137.9968941768554</v>
+        <v>135.4581426529572</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27399,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>203.5998438286945</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>202.9636484969459</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27472,10 +27472,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>132.0336874001691</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I3" t="n">
         <v>82.52058710970364</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,10 +27514,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>219.0653363392634</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>227.4907573863837</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>161.1149336167473</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>158.8921921532466</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>16.21307073658342</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,19 +27578,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.28599750998295</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>170.417345635458</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>221.0695436865701</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>5.892868265313085</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.114653472833368</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.84800438960156</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U6" t="n">
-        <v>219.0653363392634</v>
+        <v>220.6315523179333</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3707753569164</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>143.0989822923763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27815,19 +27815,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>80.10562216239495</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S7" t="n">
-        <v>217.1405522952608</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>221.0695436865701</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>348.6266205313835</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.0543243305503</v>
       </c>
       <c r="F8" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>333.938231202278</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>366.2431486896829</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.85509663750808</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>166.3733413407963</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,10 +27991,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9629232838465</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.0747697137129</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>152.1154945730653</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K10" t="n">
-        <v>6.966754310747802</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34704,7 +34704,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>6.598225711743297</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="L3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
@@ -35108,7 +35108,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="N9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>15.30273751513505</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M10" t="n">
-        <v>14.68444509028111</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>69.80114340299939</v>
       </c>
       <c r="L11" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>353.5627901391012</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
         <v>478.8956552492236</v>
@@ -35427,7 +35427,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>318.259587981502</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>536.2903785777002</v>
+        <v>153.3528295639314</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35655,10 +35655,10 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>93.40002647649722</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>213.4708757142011</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35734,13 +35734,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>526.7994615421812</v>
       </c>
       <c r="N15" t="n">
-        <v>536.2903785777002</v>
+        <v>79.97735909033671</v>
       </c>
       <c r="O15" t="n">
-        <v>51.59176113437536</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36208,7 +36208,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37153,13 +37153,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
         <v>421.5361394435301</v>
@@ -37794,13 +37794,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>333.1391170115714</v>
       </c>
       <c r="P41" t="n">
-        <v>176.6859416446846</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>81.37261610528306</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>63.73626307629388</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>435.1943682237513</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>223.798649692868</v>
       </c>
       <c r="L44" t="n">
-        <v>255.9243760868072</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
         <v>485.8144648060965</v>
@@ -38031,13 +38031,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>25.76332749029984</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>190.8120443053994</v>
       </c>
       <c r="L45" t="n">
-        <v>197.5212087265939</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>536.2903785777002</v>
+        <v>538.8291301015984</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>21.17845723362746</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1241601.207286113</v>
+        <v>1275272.897706982</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1859210.471657866</v>
+        <v>1859295.739030067</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7928464.101181046</v>
+        <v>7938807.10155316</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8704811.254162131</v>
+        <v>8701955.653025651</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>5.309829763041574</v>
       </c>
     </row>
     <row r="4">
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>3.334980354192922</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.334980354192922</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>6.876045741711437</v>
@@ -1031,7 +1031,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="U6" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1056,64 +1056,64 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.334980354192922</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="V7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>15.26809192273228</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="H9" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I9" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>5.309829763041575</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.334980354192922</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="J10" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="K10" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>347.7518143608922</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>166.4810805466385</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>146.8931342764365</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>13.40423842021087</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.8879277888686</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>85.87170836083672</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>190.2713935802968</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,10 +1624,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.1027744893633</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>31.81879361082632</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>90.89194914133955</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>154.9640427630989</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>69.40414780104449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>66.86902423233431</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>40.24794359620265</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>62.953695695055</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>163.2123634091011</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>14.44433456003252</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>63.49046982291144</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498666</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>189.5968436493439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>307.5386589270121</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>84.95149223441527</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>141.3236091729814</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>173.9313784350747</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>101.0648684641362</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>372.3397932141368</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>154.8229679689706</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>394.0998332478204</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>355.2566970572772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>118.2537958723258</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>55.90301252244922</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>110.7002136147241</v>
+        <v>248.1474462190789</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>11.67884460201108</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>128.4340426649161</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>356.2400728569431</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>46.58646588932415</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2793294336578</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>375.1330867944904</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>157.7061603512631</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>85.88160312186113</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>212.8672935600042</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>252.6012399104507</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>22.77063615454877</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>120.8520174574765</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>131.8179123113443</v>
       </c>
       <c r="V43" t="n">
-        <v>234.4970761400736</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>198.4346827164115</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>198.6495092155569</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4058,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3.682518069320168</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>171.6823742842662</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
         <v>225.8879277888686</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>20.40125615200022</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>126.4837616268616</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D2" t="n">
         <v>21.38658590694733</v>
       </c>
       <c r="E2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F2" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G2" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H2" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I2" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J2" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L2" t="n">
         <v>7.357368943631237</v>
-      </c>
-      <c r="L2" t="n">
-        <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
         <v>14.16465422792556</v>
       </c>
       <c r="N2" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="C3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="D3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="E3" t="n">
-        <v>20.55868221764227</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="F3" t="n">
-        <v>20.55868221764227</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="G3" t="n">
-        <v>15.19521781052957</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H3" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I3" t="n">
         <v>1.304216312122629</v>
@@ -4415,16 +4415,16 @@
         <v>7.082327113962777</v>
       </c>
       <c r="L3" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="N3" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N3" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="O3" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P3" t="n">
         <v>27.50418296684575</v>
@@ -4454,7 +4454,7 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.50418296684575</v>
+        <v>22.14071855973305</v>
       </c>
     </row>
     <row r="4">
@@ -4479,7 +4479,7 @@
         <v>17.80975218218115</v>
       </c>
       <c r="G4" t="n">
-        <v>10.86425143297768</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="H4" t="n">
         <v>7.495584408540386</v>
@@ -4509,13 +4509,13 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R4" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="S4" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="T4" t="n">
         <v>17.80975218218115</v>
@@ -4576,13 +4576,13 @@
         <v>14.16465422792556</v>
       </c>
       <c r="M5" t="n">
-        <v>14.16465422792556</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N5" t="n">
         <v>20.97193951221988</v>
       </c>
       <c r="O5" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C6" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D6" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="E6" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F6" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G6" t="n">
-        <v>1.304216312122629</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H6" t="n">
         <v>1.304216312122629</v>
@@ -4649,49 +4649,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>13.8896123982571</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M6" t="n">
-        <v>13.8896123982571</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="N6" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="O6" t="n">
+        <v>14.16465422792556</v>
+      </c>
+      <c r="P6" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="P6" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S6" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>13.6131814684388</v>
       </c>
-      <c r="T6" t="n">
-        <v>6.667680719235332</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V6" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W6" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X6" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="C7" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="D7" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="E7" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="J7" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="K7" t="n">
         <v>0.5500836593369149</v>
@@ -4743,34 +4743,34 @@
         <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.38658590694733</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R7" t="n">
-        <v>14.44108515774386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="S7" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="T7" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U7" t="n">
-        <v>14.44108515774386</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="V7" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="W7" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="X7" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.50418296684575</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C8" t="n">
-        <v>27.50418296684575</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38658590694733</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E8" t="n">
-        <v>14.44108515774386</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F8" t="n">
-        <v>7.495584408540386</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>7.082327113962777</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L8" t="n">
-        <v>13.8896123982571</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M8" t="n">
-        <v>20.69689768255142</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
-        <v>27.50418296684575</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
-        <v>27.50418296684575</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.50418296684575</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W8" t="n">
-        <v>27.50418296684575</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X8" t="n">
-        <v>27.50418296684575</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.50418296684575</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="F9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="G9" t="n">
-        <v>15.19521781052957</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="H9" t="n">
-        <v>8.2497170613261</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>7.357368943631237</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L9" t="n">
-        <v>14.16465422792556</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M9" t="n">
-        <v>20.69689768255142</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O9" t="n">
-        <v>20.69689768255142</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.50418296684575</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>20.55868221764227</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.19521781052957</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="C10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="D10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="E10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="F10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="G10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="H10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="I10" t="n">
-        <v>14.44108515774386</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="J10" t="n">
-        <v>7.495584408540386</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8896123982571</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
-        <v>27.50418296684575</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>24.75525293138463</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="T10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="U10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="V10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="W10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="X10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.80975218218115</v>
+        <v>43.00470940373054</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1167.075207759977</v>
+        <v>874.8283852055197</v>
       </c>
       <c r="C11" t="n">
-        <v>1167.075207759977</v>
+        <v>523.5639262551235</v>
       </c>
       <c r="D11" t="n">
-        <v>1167.075207759977</v>
+        <v>523.5639262551235</v>
       </c>
       <c r="E11" t="n">
-        <v>781.2869551617325</v>
+        <v>523.5639262551235</v>
       </c>
       <c r="F11" t="n">
-        <v>370.301050372125</v>
+        <v>523.5639262551235</v>
       </c>
       <c r="G11" t="n">
-        <v>370.301050372125</v>
+        <v>523.5639262551235</v>
       </c>
       <c r="H11" t="n">
-        <v>43.10633040812788</v>
+        <v>196.3692062911263</v>
       </c>
       <c r="I11" t="n">
-        <v>43.10633040812788</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J11" t="n">
-        <v>158.8741866410776</v>
+        <v>158.6710865191657</v>
       </c>
       <c r="K11" t="n">
-        <v>227.977318610047</v>
+        <v>452.9218975391641</v>
       </c>
       <c r="L11" t="n">
-        <v>645.2980966591418</v>
+        <v>870.242675588259</v>
       </c>
       <c r="M11" t="n">
-        <v>1126.254416817177</v>
+        <v>906.1805975883904</v>
       </c>
       <c r="N11" t="n">
-        <v>1600.361115513909</v>
+        <v>1380.287296285122</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.858989179424</v>
+        <v>1686.855742935265</v>
       </c>
       <c r="P11" t="n">
-        <v>2002.858989179424</v>
+        <v>1992.703983083828</v>
       </c>
       <c r="Q11" t="n">
-        <v>2155.316520406394</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="R11" t="n">
-        <v>2155.316520406394</v>
+        <v>2090.132824841291</v>
       </c>
       <c r="S11" t="n">
-        <v>1979.139032720564</v>
+        <v>2090.132824841291</v>
       </c>
       <c r="T11" t="n">
-        <v>1979.139032720564</v>
+        <v>1871.498157813354</v>
       </c>
       <c r="U11" t="n">
-        <v>1725.377247358656</v>
+        <v>1617.736372451446</v>
       </c>
       <c r="V11" t="n">
-        <v>1725.377247358656</v>
+        <v>1617.736372451446</v>
       </c>
       <c r="W11" t="n">
-        <v>1557.214539735789</v>
+        <v>1264.967717181331</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.214539735789</v>
+        <v>1264.967717181331</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.075207759977</v>
+        <v>874.8283852055197</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>496.8787751934297</v>
+        <v>672.0626822071648</v>
       </c>
       <c r="C12" t="n">
-        <v>348.5018718838979</v>
+        <v>497.6096529260378</v>
       </c>
       <c r="D12" t="n">
-        <v>348.5018718838979</v>
+        <v>348.6752432647865</v>
       </c>
       <c r="E12" t="n">
-        <v>348.5018718838979</v>
+        <v>189.437788259331</v>
       </c>
       <c r="F12" t="n">
-        <v>348.5018718838979</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="G12" t="n">
-        <v>210.591758830164</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="H12" t="n">
-        <v>105.1489768551058</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="I12" t="n">
-        <v>43.10633040812788</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J12" t="n">
-        <v>43.10633040812788</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3536508492264</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="L12" t="n">
-        <v>702.9695689448982</v>
+        <v>447.5191483818878</v>
       </c>
       <c r="M12" t="n">
-        <v>1227.116482502929</v>
+        <v>971.6660619399187</v>
       </c>
       <c r="N12" t="n">
-        <v>1378.935783771221</v>
+        <v>1368.780777675625</v>
       </c>
       <c r="O12" t="n">
-        <v>1819.071706791565</v>
+        <v>1808.916700695969</v>
       </c>
       <c r="P12" t="n">
-        <v>2155.316520406394</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="Q12" t="n">
-        <v>2155.316520406394</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="R12" t="n">
-        <v>2155.316520406394</v>
+        <v>2131.621879542908</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.14354805031</v>
+        <v>1973.448907186824</v>
       </c>
       <c r="T12" t="n">
-        <v>1798.265000173089</v>
+        <v>1973.448907186824</v>
       </c>
       <c r="U12" t="n">
-        <v>1570.095376143929</v>
+        <v>1745.279283157664</v>
       </c>
       <c r="V12" t="n">
-        <v>1334.943267912186</v>
+        <v>1510.127174925921</v>
       </c>
       <c r="W12" t="n">
-        <v>1080.705911183984</v>
+        <v>1255.889818197719</v>
       </c>
       <c r="X12" t="n">
-        <v>872.8544109784516</v>
+        <v>1048.038317992187</v>
       </c>
       <c r="Y12" t="n">
-        <v>665.0941122134977</v>
+        <v>840.2780192272328</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.10633040812788</v>
+        <v>340.9329632809448</v>
       </c>
       <c r="C13" t="n">
-        <v>43.10633040812788</v>
+        <v>340.9329632809448</v>
       </c>
       <c r="D13" t="n">
-        <v>43.10633040812788</v>
+        <v>190.8163238686091</v>
       </c>
       <c r="E13" t="n">
-        <v>43.10633040812788</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="F13" t="n">
-        <v>43.10633040812788</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="G13" t="n">
-        <v>43.10633040812788</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="H13" t="n">
-        <v>43.10633040812788</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="I13" t="n">
-        <v>43.10633040812788</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J13" t="n">
-        <v>43.10633040812788</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="K13" t="n">
-        <v>99.40852347439602</v>
+        <v>99.2054233524841</v>
       </c>
       <c r="L13" t="n">
-        <v>226.9823810355545</v>
+        <v>226.7792809136425</v>
       </c>
       <c r="M13" t="n">
-        <v>371.8802497535844</v>
+        <v>371.6771496316725</v>
       </c>
       <c r="N13" t="n">
-        <v>518.7673874380134</v>
+        <v>518.5642873161016</v>
       </c>
       <c r="O13" t="n">
-        <v>638.4251379472536</v>
+        <v>638.2220378253418</v>
       </c>
       <c r="P13" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="Q13" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="R13" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="S13" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="T13" t="n">
-        <v>489.9841454627995</v>
+        <v>630.3501333179054</v>
       </c>
       <c r="U13" t="n">
-        <v>489.9841454627995</v>
+        <v>630.3501333179054</v>
       </c>
       <c r="V13" t="n">
-        <v>235.2996572569126</v>
+        <v>630.3501333179054</v>
       </c>
       <c r="W13" t="n">
-        <v>43.10633040812788</v>
+        <v>340.9329632809448</v>
       </c>
       <c r="X13" t="n">
-        <v>43.10633040812788</v>
+        <v>340.9329632809448</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.10633040812788</v>
+        <v>340.9329632809448</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1341.764330062013</v>
+        <v>988.9335193072677</v>
       </c>
       <c r="C14" t="n">
-        <v>972.8018131216018</v>
+        <v>988.9335193072677</v>
       </c>
       <c r="D14" t="n">
-        <v>614.5361145148513</v>
+        <v>630.6678207005173</v>
       </c>
       <c r="E14" t="n">
-        <v>614.5361145148513</v>
+        <v>630.6678207005173</v>
       </c>
       <c r="F14" t="n">
-        <v>614.5361145148513</v>
+        <v>630.6678207005173</v>
       </c>
       <c r="G14" t="n">
-        <v>196.5723064130382</v>
+        <v>212.7040125987041</v>
       </c>
       <c r="H14" t="n">
-        <v>196.5723064130382</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="I14" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J14" t="n">
-        <v>43.10633040812787</v>
+        <v>158.6710865191657</v>
       </c>
       <c r="K14" t="n">
-        <v>337.3571414281263</v>
+        <v>452.9218975391641</v>
       </c>
       <c r="L14" t="n">
-        <v>754.6779194772212</v>
+        <v>870.242675588259</v>
       </c>
       <c r="M14" t="n">
-        <v>1235.634239635257</v>
+        <v>1187.243350023136</v>
       </c>
       <c r="N14" t="n">
-        <v>1446.970406592316</v>
+        <v>1661.350048719868</v>
       </c>
       <c r="O14" t="n">
-        <v>1849.46828025783</v>
+        <v>1686.855742935265</v>
       </c>
       <c r="P14" t="n">
-        <v>2155.316520406393</v>
+        <v>1992.703983083828</v>
       </c>
       <c r="Q14" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="R14" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="S14" t="n">
-        <v>1979.139032720564</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="T14" t="n">
-        <v>1760.504365692626</v>
+        <v>1926.526847282861</v>
       </c>
       <c r="U14" t="n">
-        <v>1760.504365692626</v>
+        <v>1672.765061920952</v>
       </c>
       <c r="V14" t="n">
-        <v>1728.364170126135</v>
+        <v>1341.702174577382</v>
       </c>
       <c r="W14" t="n">
-        <v>1728.364170126135</v>
+        <v>988.9335193072677</v>
       </c>
       <c r="X14" t="n">
-        <v>1728.364170126135</v>
+        <v>988.9335193072677</v>
       </c>
       <c r="Y14" t="n">
-        <v>1728.364170126135</v>
+        <v>988.9335193072677</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.8383769613379</v>
+        <v>915.4155772359567</v>
       </c>
       <c r="C15" t="n">
-        <v>430.3853476802109</v>
+        <v>740.9625479548297</v>
       </c>
       <c r="D15" t="n">
-        <v>281.4509380189596</v>
+        <v>592.0281382935784</v>
       </c>
       <c r="E15" t="n">
-        <v>189.6408883812429</v>
+        <v>432.790683288123</v>
       </c>
       <c r="F15" t="n">
-        <v>43.10633040812787</v>
+        <v>286.256125315008</v>
       </c>
       <c r="G15" t="n">
-        <v>43.10633040812787</v>
+        <v>148.3460122612741</v>
       </c>
       <c r="H15" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="I15" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J15" t="n">
-        <v>118.3634928082577</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="K15" t="n">
-        <v>373.6108132493562</v>
+        <v>188.7673766568923</v>
       </c>
       <c r="L15" t="n">
-        <v>778.226731345028</v>
+        <v>593.3832947525642</v>
       </c>
       <c r="M15" t="n">
-        <v>1299.758198271787</v>
+        <v>1117.530208310595</v>
       </c>
       <c r="N15" t="n">
-        <v>1378.935783771221</v>
+        <v>1196.707793810028</v>
       </c>
       <c r="O15" t="n">
-        <v>1819.071706791565</v>
+        <v>1636.843716830372</v>
       </c>
       <c r="P15" t="n">
-        <v>2155.316520406393</v>
+        <v>1973.088530445201</v>
       </c>
       <c r="Q15" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.103149818218</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="S15" t="n">
-        <v>2105.103149818218</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="T15" t="n">
-        <v>1906.224601940997</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="U15" t="n">
-        <v>1678.054977911837</v>
+        <v>1988.632178186456</v>
       </c>
       <c r="V15" t="n">
-        <v>1442.902869680094</v>
+        <v>1753.480069954713</v>
       </c>
       <c r="W15" t="n">
-        <v>1188.665512951893</v>
+        <v>1499.242713226511</v>
       </c>
       <c r="X15" t="n">
-        <v>980.8140127463598</v>
+        <v>1291.391213020979</v>
       </c>
       <c r="Y15" t="n">
-        <v>773.053713981406</v>
+        <v>1083.630914256025</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>212.1061306697954</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="C16" t="n">
-        <v>212.1061306697954</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="D16" t="n">
-        <v>212.1061306697954</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="E16" t="n">
-        <v>212.1061306697954</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="F16" t="n">
-        <v>212.1061306697954</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="G16" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="H16" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="I16" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J16" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="K16" t="n">
-        <v>99.40852347439602</v>
+        <v>99.2054233524841</v>
       </c>
       <c r="L16" t="n">
-        <v>226.9823810355545</v>
+        <v>226.7792809136425</v>
       </c>
       <c r="M16" t="n">
-        <v>371.8802497535844</v>
+        <v>371.6771496316725</v>
       </c>
       <c r="N16" t="n">
-        <v>518.7673874380134</v>
+        <v>518.5642873161016</v>
       </c>
       <c r="O16" t="n">
-        <v>638.4251379472536</v>
+        <v>638.2220378253418</v>
       </c>
       <c r="P16" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="Q16" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="R16" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="S16" t="n">
-        <v>503.0039096123604</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="T16" t="n">
-        <v>503.0039096123604</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="U16" t="n">
-        <v>503.0039096123604</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="V16" t="n">
-        <v>503.0039096123604</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="W16" t="n">
-        <v>503.0039096123604</v>
+        <v>427.6720626353253</v>
       </c>
       <c r="X16" t="n">
-        <v>432.8987098133256</v>
+        <v>199.6825117373079</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.1061306697954</v>
+        <v>199.6825117373079</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1663.420136195576</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C17" t="n">
-        <v>1663.420136195576</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D17" t="n">
-        <v>1663.420136195576</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E17" t="n">
-        <v>1277.631883597332</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F17" t="n">
-        <v>866.6459788077245</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>448.6821707059114</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>121.4874507419142</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2423.485734520778</v>
+        <v>1952.891972992027</v>
       </c>
       <c r="W17" t="n">
-        <v>2423.485734520778</v>
+        <v>1600.123317721913</v>
       </c>
       <c r="X17" t="n">
-        <v>2050.019976259698</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="Y17" t="n">
-        <v>2050.019976259698</v>
+        <v>1226.657559460833</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5606,13 +5606,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T19" t="n">
-        <v>286.5323736931987</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U19" t="n">
-        <v>286.5323736931987</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V19" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W19" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.959449965771</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C20" t="n">
-        <v>797.9969330253591</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2627.530164619389</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2627.530164619389</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2296.467277275819</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="W20" t="n">
-        <v>1943.698622005704</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="X20" t="n">
-        <v>1943.698622005704</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y20" t="n">
-        <v>1553.559290029893</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="21">
@@ -5828,52 +5828,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5940,22 +5940,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>536.6170209242687</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U22" t="n">
-        <v>536.6170209242687</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V22" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9325327183818</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.175505447095</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="C23" t="n">
-        <v>825.2129885066831</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>466.9472898999326</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>466.9472898999326</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>466.9472898999326</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511217</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>222.942782082032</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C25" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D25" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>222.942782082032</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="W25" t="n">
-        <v>222.942782082032</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="X25" t="n">
-        <v>222.942782082032</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.942782082032</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1370.766673031379</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6229,16 +6229,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V26" t="n">
-        <v>2520.971603332393</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W26" t="n">
-        <v>2520.971603332393</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X26" t="n">
-        <v>2147.505845071313</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y26" t="n">
-        <v>1757.366513095501</v>
+        <v>1739.654191907093</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6305,16 +6305,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6329,19 +6329,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D28" t="n">
-        <v>578.0123447940985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>430.0992512117053</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1964.838184214438</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="C29" t="n">
-        <v>1595.875667274027</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="D29" t="n">
-        <v>1595.875667274027</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="E29" t="n">
-        <v>1210.087414675782</v>
+        <v>605.4895974695378</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>605.4895974695378</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,10 +6466,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6490,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y29" t="n">
-        <v>1964.838184214438</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="30">
@@ -6536,22 +6536,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>380.6911546495019</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>608.6807055475192</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>608.6807055475192</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>608.6807055475192</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>608.6807055475192</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="X31" t="n">
-        <v>380.6911546495019</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y31" t="n">
-        <v>380.6911546495019</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>920.5121489496507</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C32" t="n">
-        <v>551.5496320092391</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="D32" t="n">
-        <v>551.5496320092391</v>
+        <v>1261.81500460521</v>
       </c>
       <c r="E32" t="n">
-        <v>165.7613794109948</v>
+        <v>876.0267520069656</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6703,16 +6703,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W32" t="n">
-        <v>2070.717079250664</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X32" t="n">
-        <v>1697.251320989584</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y32" t="n">
-        <v>1307.111989013772</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6791,37 +6791,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>352.67413830922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>183.6743380475524</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036445</v>
@@ -6882,28 +6882,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>352.67413830922</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U34" t="n">
-        <v>352.67413830922</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V34" t="n">
-        <v>352.67413830922</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W34" t="n">
-        <v>352.67413830922</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X34" t="n">
-        <v>352.67413830922</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y34" t="n">
-        <v>352.67413830922</v>
+        <v>65.73979454966857</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1190.010945960184</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C35" t="n">
-        <v>1190.010945960184</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D35" t="n">
-        <v>831.7452473534333</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="E35" t="n">
-        <v>471.9067899221776</v>
+        <v>929.9497309636276</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>518.9638261740201</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>101.000018072207</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>101.000018072207</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V35" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W35" t="n">
-        <v>1563.476704221264</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X35" t="n">
-        <v>1190.010945960184</v>
+        <v>2092.477155601805</v>
       </c>
       <c r="Y35" t="n">
-        <v>1190.010945960184</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>517.7458231623355</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U37" t="n">
-        <v>517.7458231623355</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V37" t="n">
-        <v>517.7458231623355</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X37" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y37" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1881.118241157406</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C38" t="n">
-        <v>1881.118241157406</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D38" t="n">
-        <v>1522.852542550655</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>1881.118241157406</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W38" t="n">
-        <v>1881.118241157406</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X38" t="n">
-        <v>1881.118241157406</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y38" t="n">
-        <v>1881.118241157406</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7262,16 +7262,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>184.2708856551153</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="C40" t="n">
-        <v>184.2708856551153</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="D40" t="n">
-        <v>184.2708856551153</v>
+        <v>140.6920758828504</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>140.6920758828504</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V40" t="n">
-        <v>184.2708856551153</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W40" t="n">
-        <v>184.2708856551153</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X40" t="n">
-        <v>184.2708856551153</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.2708856551153</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>607.5582112026458</v>
+        <v>1599.081158724799</v>
       </c>
       <c r="C41" t="n">
-        <v>607.5582112026458</v>
+        <v>1230.118641784387</v>
       </c>
       <c r="D41" t="n">
-        <v>607.5582112026458</v>
+        <v>871.8529431776367</v>
       </c>
       <c r="E41" t="n">
-        <v>607.5582112026458</v>
+        <v>871.8529431776367</v>
       </c>
       <c r="F41" t="n">
-        <v>196.5723064130382</v>
+        <v>460.8670383880291</v>
       </c>
       <c r="G41" t="n">
-        <v>196.5723064130382</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="H41" t="n">
-        <v>196.5723064130382</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="I41" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J41" t="n">
-        <v>158.8741866410776</v>
+        <v>158.6710865191657</v>
       </c>
       <c r="K41" t="n">
-        <v>453.1249976610761</v>
+        <v>452.9218975391641</v>
       </c>
       <c r="L41" t="n">
-        <v>870.4457757101709</v>
+        <v>870.242675588259</v>
       </c>
       <c r="M41" t="n">
-        <v>1351.402095868206</v>
+        <v>1351.198995746294</v>
       </c>
       <c r="N41" t="n">
-        <v>1825.508794564938</v>
+        <v>1825.305694443026</v>
       </c>
       <c r="O41" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="P41" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="Q41" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="R41" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="S41" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="T41" t="n">
-        <v>1936.681853378456</v>
+        <v>1930.144046068369</v>
       </c>
       <c r="U41" t="n">
-        <v>1936.681853378456</v>
+        <v>1930.144046068369</v>
       </c>
       <c r="V41" t="n">
-        <v>1605.618966034885</v>
+        <v>1599.081158724799</v>
       </c>
       <c r="W41" t="n">
-        <v>1252.850310764771</v>
+        <v>1599.081158724799</v>
       </c>
       <c r="X41" t="n">
-        <v>997.6975431784575</v>
+        <v>1599.081158724799</v>
       </c>
       <c r="Y41" t="n">
-        <v>607.5582112026458</v>
+        <v>1599.081158724799</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>899.7813092106767</v>
+        <v>604.7257355297265</v>
       </c>
       <c r="C42" t="n">
-        <v>725.3282799295497</v>
+        <v>604.7257355297265</v>
       </c>
       <c r="D42" t="n">
-        <v>576.3938702682984</v>
+        <v>455.7913258684753</v>
       </c>
       <c r="E42" t="n">
-        <v>417.1564152628429</v>
+        <v>432.790683288123</v>
       </c>
       <c r="F42" t="n">
-        <v>270.6218572897279</v>
+        <v>286.256125315008</v>
       </c>
       <c r="G42" t="n">
-        <v>148.549112383186</v>
+        <v>148.3460122612741</v>
       </c>
       <c r="H42" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="I42" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J42" t="n">
-        <v>118.3634928082577</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="K42" t="n">
-        <v>198.9223827524879</v>
+        <v>298.1505507273145</v>
       </c>
       <c r="L42" t="n">
-        <v>603.5383008481598</v>
+        <v>702.7664688229863</v>
       </c>
       <c r="M42" t="n">
-        <v>1127.685214406191</v>
+        <v>1226.913382381017</v>
       </c>
       <c r="N42" t="n">
-        <v>1206.862799905624</v>
+        <v>1306.09096788045</v>
       </c>
       <c r="O42" t="n">
-        <v>1646.998722925968</v>
+        <v>1746.226890900794</v>
       </c>
       <c r="P42" t="n">
-        <v>1983.243536540797</v>
+        <v>2082.471704515623</v>
       </c>
       <c r="Q42" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.103149818218</v>
+        <v>2094.948143722623</v>
       </c>
       <c r="S42" t="n">
-        <v>1946.930177462134</v>
+        <v>1936.775171366539</v>
       </c>
       <c r="T42" t="n">
-        <v>1946.930177462134</v>
+        <v>1737.896623489318</v>
       </c>
       <c r="U42" t="n">
-        <v>1718.760553432974</v>
+        <v>1509.726999460157</v>
       </c>
       <c r="V42" t="n">
-        <v>1483.608445201231</v>
+        <v>1274.574891228415</v>
       </c>
       <c r="W42" t="n">
-        <v>1483.608445201231</v>
+        <v>1020.337534500213</v>
       </c>
       <c r="X42" t="n">
-        <v>1275.756944995699</v>
+        <v>812.4860342946804</v>
       </c>
       <c r="Y42" t="n">
-        <v>1067.996646230745</v>
+        <v>604.7257355297265</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.10633040812787</v>
+        <v>369.6514031153534</v>
       </c>
       <c r="C43" t="n">
-        <v>43.10633040812787</v>
+        <v>369.6514031153534</v>
       </c>
       <c r="D43" t="n">
-        <v>43.10633040812787</v>
+        <v>369.6514031153534</v>
       </c>
       <c r="E43" t="n">
-        <v>43.10633040812787</v>
+        <v>369.6514031153534</v>
       </c>
       <c r="F43" t="n">
-        <v>43.10633040812787</v>
+        <v>369.6514031153534</v>
       </c>
       <c r="G43" t="n">
-        <v>43.10633040812787</v>
+        <v>200.6516028536858</v>
       </c>
       <c r="H43" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="I43" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J43" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="K43" t="n">
-        <v>99.40852347439599</v>
+        <v>99.2054233524841</v>
       </c>
       <c r="L43" t="n">
-        <v>226.9823810355544</v>
+        <v>226.7792809136425</v>
       </c>
       <c r="M43" t="n">
-        <v>371.8802497535843</v>
+        <v>371.6771496316725</v>
       </c>
       <c r="N43" t="n">
-        <v>518.7673874380134</v>
+        <v>518.5642873161016</v>
       </c>
       <c r="O43" t="n">
-        <v>638.4251379472536</v>
+        <v>638.2220378253418</v>
       </c>
       <c r="P43" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="Q43" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="R43" t="n">
-        <v>569.1456742283817</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="S43" t="n">
-        <v>569.1456742283817</v>
+        <v>502.8008094904486</v>
       </c>
       <c r="T43" t="n">
-        <v>569.1456742283817</v>
+        <v>502.8008094904486</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9720638829497</v>
+        <v>369.6514031153534</v>
       </c>
       <c r="V43" t="n">
-        <v>43.10633040812787</v>
+        <v>369.6514031153534</v>
       </c>
       <c r="W43" t="n">
-        <v>43.10633040812787</v>
+        <v>369.6514031153534</v>
       </c>
       <c r="X43" t="n">
-        <v>43.10633040812787</v>
+        <v>369.6514031153534</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.10633040812787</v>
+        <v>369.6514031153534</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>846.8583911081853</v>
+        <v>1381.556424073906</v>
       </c>
       <c r="C44" t="n">
-        <v>846.8583911081853</v>
+        <v>1012.593907133495</v>
       </c>
       <c r="D44" t="n">
-        <v>846.8583911081853</v>
+        <v>654.3282085267442</v>
       </c>
       <c r="E44" t="n">
-        <v>461.070138509941</v>
+        <v>654.3282085267442</v>
       </c>
       <c r="F44" t="n">
-        <v>461.070138509941</v>
+        <v>243.3423037371367</v>
       </c>
       <c r="G44" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="H44" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="I44" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J44" t="n">
-        <v>158.8741866410776</v>
+        <v>158.6710865191657</v>
       </c>
       <c r="K44" t="n">
-        <v>380.4348498370169</v>
+        <v>452.9218975391641</v>
       </c>
       <c r="L44" t="n">
-        <v>797.7556278861117</v>
+        <v>870.242675588259</v>
       </c>
       <c r="M44" t="n">
-        <v>1278.711948044147</v>
+        <v>1351.198995746294</v>
       </c>
       <c r="N44" t="n">
-        <v>1752.818646740879</v>
+        <v>1742.663640645283</v>
       </c>
       <c r="O44" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="P44" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="Q44" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="R44" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="S44" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="T44" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="U44" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="V44" t="n">
-        <v>1824.253633062823</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="W44" t="n">
-        <v>1623.597563148119</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="X44" t="n">
-        <v>1623.597563148119</v>
+        <v>1771.695756049718</v>
       </c>
       <c r="Y44" t="n">
-        <v>1233.458231172307</v>
+        <v>1381.556424073906</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>680.5137557456572</v>
+        <v>436.5103985096585</v>
       </c>
       <c r="C45" t="n">
-        <v>506.0607264645303</v>
+        <v>436.5103985096585</v>
       </c>
       <c r="D45" t="n">
-        <v>357.126316803279</v>
+        <v>436.5103985096585</v>
       </c>
       <c r="E45" t="n">
-        <v>357.126316803279</v>
+        <v>432.790683288123</v>
       </c>
       <c r="F45" t="n">
-        <v>210.591758830164</v>
+        <v>286.256125315008</v>
       </c>
       <c r="G45" t="n">
-        <v>210.591758830164</v>
+        <v>148.3460122612741</v>
       </c>
       <c r="H45" t="n">
-        <v>105.1489768551058</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="I45" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J45" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="K45" t="n">
-        <v>232.0102542704733</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="L45" t="n">
-        <v>636.6261723661452</v>
+        <v>447.5191483818878</v>
       </c>
       <c r="M45" t="n">
-        <v>1160.773085924176</v>
+        <v>971.6660619399187</v>
       </c>
       <c r="N45" t="n">
-        <v>1694.213924724758</v>
+        <v>1368.780777675625</v>
       </c>
       <c r="O45" t="n">
-        <v>2134.349847745102</v>
+        <v>1808.916700695969</v>
       </c>
       <c r="P45" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="Q45" t="n">
-        <v>2155.316520406393</v>
+        <v>2145.161514310798</v>
       </c>
       <c r="R45" t="n">
-        <v>2155.316520406393</v>
+        <v>2094.948143722623</v>
       </c>
       <c r="S45" t="n">
-        <v>2155.316520406393</v>
+        <v>1936.775171366539</v>
       </c>
       <c r="T45" t="n">
-        <v>1981.899980725316</v>
+        <v>1737.896623489318</v>
       </c>
       <c r="U45" t="n">
-        <v>1753.730356696156</v>
+        <v>1509.726999460157</v>
       </c>
       <c r="V45" t="n">
-        <v>1518.578248464413</v>
+        <v>1274.574891228415</v>
       </c>
       <c r="W45" t="n">
-        <v>1264.340891736212</v>
+        <v>1020.337534500213</v>
       </c>
       <c r="X45" t="n">
-        <v>1056.489391530679</v>
+        <v>812.4860342946804</v>
       </c>
       <c r="Y45" t="n">
-        <v>848.7290927657252</v>
+        <v>604.7257355297265</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>362.2227700821312</v>
+        <v>213.6271991450166</v>
       </c>
       <c r="C46" t="n">
-        <v>362.2227700821312</v>
+        <v>213.6271991450166</v>
       </c>
       <c r="D46" t="n">
-        <v>212.1061306697954</v>
+        <v>63.51055973268083</v>
       </c>
       <c r="E46" t="n">
-        <v>212.1061306697954</v>
+        <v>63.51055973268083</v>
       </c>
       <c r="F46" t="n">
-        <v>212.1061306697954</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="G46" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="H46" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="I46" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="J46" t="n">
-        <v>43.10633040812787</v>
+        <v>42.90323028621596</v>
       </c>
       <c r="K46" t="n">
-        <v>99.40852347439599</v>
+        <v>99.2054233524841</v>
       </c>
       <c r="L46" t="n">
-        <v>226.9823810355544</v>
+        <v>226.7792809136425</v>
       </c>
       <c r="M46" t="n">
-        <v>371.8802497535843</v>
+        <v>371.6771496316725</v>
       </c>
       <c r="N46" t="n">
-        <v>518.7673874380134</v>
+        <v>518.5642873161016</v>
       </c>
       <c r="O46" t="n">
-        <v>638.4251379472536</v>
+        <v>638.2220378253418</v>
       </c>
       <c r="P46" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="Q46" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="R46" t="n">
-        <v>717.2923327941977</v>
+        <v>717.0892326722859</v>
       </c>
       <c r="S46" t="n">
-        <v>589.5309574135294</v>
+        <v>502.8008094904486</v>
       </c>
       <c r="T46" t="n">
-        <v>362.2227700821312</v>
+        <v>502.8008094904486</v>
       </c>
       <c r="U46" t="n">
-        <v>362.2227700821312</v>
+        <v>213.6271991450166</v>
       </c>
       <c r="V46" t="n">
-        <v>362.2227700821312</v>
+        <v>213.6271991450166</v>
       </c>
       <c r="W46" t="n">
-        <v>362.2227700821312</v>
+        <v>213.6271991450166</v>
       </c>
       <c r="X46" t="n">
-        <v>362.2227700821312</v>
+        <v>213.6271991450166</v>
       </c>
       <c r="Y46" t="n">
-        <v>362.2227700821312</v>
+        <v>213.6271991450166</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>242.6424607116987</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2891093383024</v>
+        <v>236.0112893083342</v>
       </c>
       <c r="O2" t="n">
-        <v>236.69643713343</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,19 +8063,19 @@
         <v>144.4396646861023</v>
       </c>
       <c r="L3" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>149.0100796637298</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8224,16 +8224,16 @@
         <v>242.6424607116987</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2891093383024</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P5" t="n">
-        <v>237.8312214670128</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>144.4396646861023</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
         <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>140.8504531560417</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.6880767567238</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M8" t="n">
-        <v>237.2222789689842</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2891093383024</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.7174847160704</v>
+        <v>152.5258840646401</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8549,10 +8549,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,16 +8616,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.4829019929816</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>154.2285214627401</v>
       </c>
       <c r="N10" t="n">
-        <v>134.5615902069446</v>
+        <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>145.3325841935542</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>96.7235145398222</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>283.901770136107</v>
       </c>
       <c r="P11" t="n">
-        <v>12.86109185980288</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,7 +8771,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>6.639660809448799</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>73.37547047359467</v>
+        <v>321.1486164002758</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8935,19 +8935,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>283.9017701361068</v>
       </c>
       <c r="N14" t="n">
-        <v>171.9221448769616</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.31748437003577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>153.9771823959906</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>463.0631984658874</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.266192922115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9254,10 +9254,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11074,13 +11074,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>307.3757895212717</v>
+        <v>297.3233592448233</v>
       </c>
       <c r="P41" t="n">
-        <v>12.86109185980291</v>
+        <v>12.86109185980288</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.3174843700358</v>
+        <v>58.31748437003577</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>88.01227691473188</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.58923311926128</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>250.7210208296908</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,16 +11308,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>353.8701023940621</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>12.86109185980291</v>
+        <v>12.86109185980288</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.3174843700358</v>
+        <v>58.31748437003577</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>197.4517051148483</v>
+        <v>6.639660809448799</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>458.8517710112617</v>
+        <v>321.1486164002758</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.26619292211501</v>
+        <v>36.266192922115</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8.426691773423613</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>17.52107741011537</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>182.7598881707745</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>25.81536471187923</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>36.30699846208245</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23469,16 +23469,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.1633970972476</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>96.25160475629417</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>155.8199982749938</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>295.9334648593086</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23582,16 +23582,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>66.75313131406139</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>70.92388502576975</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>24.62049154535623</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23703,7 +23703,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>156.3055075879927</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>85.06229201252694</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>287.5043148739322</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23937,25 +23937,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>189.183947628773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>62.49729197993608</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>202.0039857976253</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>264.2617886472235</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24180,19 +24180,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>35.43826180874041</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>57.73423284399541</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>328.8326777863797</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24265,16 +24265,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24411,19 +24411,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>83.71149628510287</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>78.20626488875331</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>264.2080233068713</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>9.590576858125019</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>64.16285195963718</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24654,7 +24654,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>70.21213748911364</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>19.68433677297463</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.98124159877642</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24891,7 +24891,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>106.7813095857584</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>230.6199858141418</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>296.1758321269874</v>
+        <v>158.7285995226326</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>168.1531355799262</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>27.73684617687908</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25122,10 +25122,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>25.69029721531865</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>105.3448503555371</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25365,16 +25365,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>16.75577602442652</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>7.60075486899018</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>224.2242097209987</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>17.40933785016585</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>59.53944490107011</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3.58102679765355</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>117.1298607680183</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>134.8744443008522</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>15.67899446572004</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>154.4639619306335</v>
       </c>
       <c r="V43" t="n">
-        <v>17.64056718375443</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>215.3494873043835</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25924,13 +25924,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>150.5914595018561</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25946,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>153.9625623860808</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>25.20738811418275</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26034,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.019791870931</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>85.66177732315734</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>942121.0421032644</v>
+        <v>944181.7708504733</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632176.5410609939</v>
+        <v>630547.1414814551</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632176.5410609941</v>
+        <v>630547.1414814549</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>719115.1164221985</v>
+        <v>719115.1164221987</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>719115.1164221985</v>
+        <v>719115.1164221987</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>719115.1164221985</v>
+        <v>719115.1164221987</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632176.5410609938</v>
+        <v>630547.1414814551</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632176.541060994</v>
+        <v>630547.1414814551</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553750.4285094052</v>
+      </c>
+      <c r="C2" t="n">
         <v>553750.4285094053</v>
       </c>
-      <c r="C2" t="n">
-        <v>553750.4285094055</v>
-      </c>
       <c r="D2" t="n">
-        <v>553750.4285094052</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>347065.784714647</v>
+        <v>346254.4406522837</v>
       </c>
       <c r="F2" t="n">
-        <v>347065.7847146472</v>
+        <v>346254.4406522837</v>
       </c>
       <c r="G2" t="n">
-        <v>390356.0235212728</v>
+        <v>390356.0235212729</v>
       </c>
       <c r="H2" t="n">
         <v>390356.0235212728</v>
       </c>
       <c r="I2" t="n">
-        <v>390356.0235212729</v>
+        <v>390356.0235212728</v>
       </c>
       <c r="J2" t="n">
-        <v>390356.0235212727</v>
+        <v>390356.0235212728</v>
       </c>
       <c r="K2" t="n">
         <v>390356.0235212729</v>
@@ -26346,16 +26346,16 @@
         <v>390356.0235212728</v>
       </c>
       <c r="M2" t="n">
-        <v>390356.0235212727</v>
+        <v>390356.0235212728</v>
       </c>
       <c r="N2" t="n">
         <v>390356.0235212728</v>
       </c>
       <c r="O2" t="n">
-        <v>347065.7847146472</v>
+        <v>346254.4406522836</v>
       </c>
       <c r="P2" t="n">
-        <v>347065.7847146472</v>
+        <v>346254.4406522837</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2617.583265578577</v>
       </c>
       <c r="E3" t="n">
-        <v>462309.8810850064</v>
+        <v>459035.8409561784</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37127.04502903576</v>
+        <v>37822.87874046362</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2132.719847627556</v>
       </c>
       <c r="M3" t="n">
-        <v>132564.8364348213</v>
+        <v>129832.2041033553</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>403521.8812643668</v>
       </c>
       <c r="D4" t="n">
-        <v>403521.8812643668</v>
+        <v>402526.5473127806</v>
       </c>
       <c r="E4" t="n">
-        <v>79857.09789004612</v>
+        <v>79517.99925953065</v>
       </c>
       <c r="F4" t="n">
-        <v>79857.09789004611</v>
+        <v>79517.99925953067</v>
       </c>
       <c r="G4" t="n">
         <v>97950.11338737927</v>
@@ -26438,28 +26438,28 @@
         <v>97950.11338737927</v>
       </c>
       <c r="I4" t="n">
+        <v>97950.11338737927</v>
+      </c>
+      <c r="J4" t="n">
         <v>97950.11338737929</v>
       </c>
-      <c r="J4" t="n">
-        <v>97950.11338737927</v>
-      </c>
       <c r="K4" t="n">
-        <v>97950.11338737927</v>
+        <v>97950.11338737929</v>
       </c>
       <c r="L4" t="n">
         <v>97950.11338737927</v>
       </c>
       <c r="M4" t="n">
-        <v>97950.11338737929</v>
+        <v>97950.11338737927</v>
       </c>
       <c r="N4" t="n">
         <v>97950.11338737927</v>
       </c>
       <c r="O4" t="n">
-        <v>79857.09789004611</v>
+        <v>79517.99925953068</v>
       </c>
       <c r="P4" t="n">
-        <v>79857.09789004611</v>
+        <v>79517.99925953068</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>34045.66358109605</v>
       </c>
       <c r="D5" t="n">
-        <v>34045.66358109605</v>
+        <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>40995.62299010967</v>
+        <v>40841.26689745662</v>
       </c>
       <c r="F5" t="n">
-        <v>40995.62299010967</v>
+        <v>40841.26689745662</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>40995.62299010967</v>
+        <v>40841.26689745662</v>
       </c>
       <c r="P5" t="n">
-        <v>40995.62299010967</v>
+        <v>40841.26689745662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113861.7934702139</v>
+        <v>113876.8856751799</v>
       </c>
       <c r="C6" t="n">
-        <v>116166.1145473135</v>
+        <v>116181.2067522795</v>
       </c>
       <c r="D6" t="n">
-        <v>116166.1145473133</v>
+        <v>114501.057639112</v>
       </c>
       <c r="E6" t="n">
-        <v>-243768.5731743575</v>
+        <v>-233910.847031275</v>
       </c>
       <c r="F6" t="n">
-        <v>218541.307910649</v>
+        <v>225124.9939249035</v>
       </c>
       <c r="G6" t="n">
-        <v>199978.9732956291</v>
+        <v>204744.7119554386</v>
       </c>
       <c r="H6" t="n">
-        <v>237106.0183246648</v>
+        <v>242567.5906959021</v>
       </c>
       <c r="I6" t="n">
-        <v>237106.0183246649</v>
+        <v>242567.5906959022</v>
       </c>
       <c r="J6" t="n">
-        <v>235306.9422126204</v>
+        <v>240768.5145838578</v>
       </c>
       <c r="K6" t="n">
-        <v>237106.018324665</v>
+        <v>242567.5906959022</v>
       </c>
       <c r="L6" t="n">
-        <v>237106.0183246649</v>
+        <v>240434.8708482746</v>
       </c>
       <c r="M6" t="n">
-        <v>104541.1818898435</v>
+        <v>112735.3865925468</v>
       </c>
       <c r="N6" t="n">
-        <v>237106.0183246649</v>
+        <v>242567.5906959022</v>
       </c>
       <c r="O6" t="n">
-        <v>218541.3079106491</v>
+        <v>225124.9939249033</v>
       </c>
       <c r="P6" t="n">
-        <v>218541.307910649</v>
+        <v>225124.9939249034</v>
       </c>
     </row>
   </sheetData>
@@ -26795,19 +26795,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>538.8291301015985</v>
+        <v>536.2903785776995</v>
       </c>
       <c r="F4" t="n">
-        <v>538.8291301015984</v>
+        <v>536.2903785776995</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="N4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="O4" t="n">
-        <v>538.8291301015984</v>
+        <v>536.2903785776995</v>
       </c>
       <c r="P4" t="n">
-        <v>538.8291301015984</v>
+        <v>536.2903785776995</v>
       </c>
     </row>
   </sheetData>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>8.426691773423613</v>
       </c>
       <c r="E4" t="n">
-        <v>531.953084359887</v>
+        <v>520.9876410625644</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>135.4581426529572</v>
+        <v>137.9968941768561</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>8.426691773423613</v>
       </c>
       <c r="M4" t="n">
-        <v>531.953084359887</v>
+        <v>520.9876410625644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>8.426691773423613</v>
       </c>
       <c r="M4" t="n">
-        <v>531.953084359887</v>
+        <v>520.9876410625644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>135.4581426529572</v>
+        <v>137.9968941768561</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>348.6266205313835</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>375.0543243305503</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>5.073243612901081</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.934278125245373</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27460,25 +27460,25 @@
         <v>159.6571379081559</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>132.0336874001691</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>200.3728660142628</v>
       </c>
     </row>
     <row r="4">
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>161.1149336167473</v>
+        <v>164.6559990042658</v>
       </c>
       <c r="H4" t="n">
-        <v>158.8921921532466</v>
+        <v>155.3511267657281</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>221.0695436865701</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27709,10 +27709,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>130.4674714214992</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>106.9256144734549</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>164.8071253621264</v>
@@ -27751,7 +27751,7 @@
         <v>193.2886829531102</v>
       </c>
       <c r="U6" t="n">
-        <v>220.6315523179333</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>15.39344608417142</v>
+        <v>18.93451147168993</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,25 +27815,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.10562216239495</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>170.417345635458</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>279.4429836147795</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>348.6266205313835</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.0543243305503</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>354.4630087557367</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>124.6114572861376</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I9" t="n">
-        <v>82.52058710970364</v>
+        <v>74.09389533628003</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>166.3733413407963</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>152.1154945730653</v>
+        <v>144.6932644590339</v>
       </c>
       <c r="J10" t="n">
-        <v>86.48313437496134</v>
+        <v>78.05644260153773</v>
       </c>
       <c r="K10" t="n">
-        <v>15.39344608417142</v>
+        <v>6.966754310747802</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.28599750998295</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N2" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>6.598225711743296</v>
       </c>
       <c r="L3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34944,16 +34944,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P5" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="Q6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>6.876045741711437</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M8" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.876045741711437</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L9" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
-        <v>6.598225711743297</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.598225711743296</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N10" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>69.80114340299939</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>36.30093131326399</v>
       </c>
       <c r="N11" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>309.6650976264068</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>153.3528295639314</v>
+        <v>401.1259754906126</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35655,19 +35655,19 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>320.2027014493709</v>
       </c>
       <c r="N14" t="n">
-        <v>213.4708757142011</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>25.76332749029984</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>147.3375215865418</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>526.7994615421812</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>79.97735909033671</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36208,7 +36208,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L26" t="n">
         <v>421.5361394435301</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36834,7 +36834,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L29" t="n">
         <v>421.5361394435301</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M38" t="n">
         <v>485.8144648060965</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37630,13 +37630,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>333.1391170115714</v>
+        <v>323.0866867351232</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>81.37261610528306</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>79.97735909033668</v>
+        <v>79.97735909033671</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>63.32304019714629</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>223.798649692868</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38028,10 +38028,10 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>395.4188332313016</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>190.8120443053994</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>538.8291301015984</v>
+        <v>401.1259754906126</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>21.17845723362746</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
